--- a/exports/yield_files/LP HOLL 6.xlsx
+++ b/exports/yield_files/LP HOLL 6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -86,10 +86,19 @@
     <t xml:space="preserve">N19-1521</t>
   </si>
   <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
     <t xml:space="preserve">N19-1531</t>
   </si>
   <si>
     <t xml:space="preserve">N19-1550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
   </si>
   <si>
     <t xml:space="preserve">N19-1556</t>
@@ -102,6 +111,9 @@
   </si>
   <si>
     <t xml:space="preserve">N19-1593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">N19-1599</t>
@@ -120,6 +132,9 @@
   </si>
   <si>
     <t xml:space="preserve">N19-1635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spilled</t>
   </si>
   <si>
     <t xml:space="preserve">N19-1657</t>
@@ -147,12 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t</t>
   </si>
   <si>
     <t xml:space="preserve">p</t>
@@ -576,17 +585,33 @@
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="J2" t="n">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="R2" t="n">
+        <v>1784.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U2" t="n">
         <v>55.7</v>
       </c>
@@ -615,17 +640,33 @@
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+      <c r="J3" t="n">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>32</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+      <c r="R3" t="n">
+        <v>1845.6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U3" t="n">
         <v>55.6</v>
       </c>
@@ -655,15 +696,25 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
+      <c r="R4" t="n">
+        <v>1752.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>12.8</v>
+      </c>
       <c r="T4"/>
       <c r="U4" t="n">
         <v>55.7</v>
@@ -694,14 +745,20 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
+      <c r="R5" t="n">
+        <v>1159.6</v>
+      </c>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5" t="n">
@@ -719,7 +776,7 @@
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -732,17 +789,33 @@
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
+      <c r="J6" t="n">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>32</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="R6" t="n">
+        <v>2176.1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U6" t="n">
         <v>55.6</v>
       </c>
@@ -758,7 +831,7 @@
         <v>2021</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -771,17 +844,33 @@
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
+      <c r="J7" t="n">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>30</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
+      <c r="R7" t="n">
+        <v>2109.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U7" t="n">
         <v>55.3</v>
       </c>
@@ -797,7 +886,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -811,15 +900,25 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>30</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
+      <c r="R8" t="n">
+        <v>1824.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>12.7</v>
+      </c>
       <c r="T8"/>
       <c r="U8" t="n">
         <v>55.2</v>
@@ -836,7 +935,7 @@
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -850,14 +949,20 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
+      <c r="R9" t="n">
+        <v>1090.1</v>
+      </c>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
@@ -873,7 +978,7 @@
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -886,17 +991,33 @@
       </c>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
+      <c r="J10" t="n">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="n">
+        <v>34</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
+      <c r="R10" t="n">
+        <v>2443.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U10" t="n">
         <v>56.7</v>
       </c>
@@ -912,7 +1033,7 @@
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -925,17 +1046,33 @@
       </c>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
+      <c r="J11" t="n">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="n">
+        <v>30</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+      <c r="R11" t="n">
+        <v>2119.6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U11" t="n">
         <v>57.3</v>
       </c>
@@ -951,7 +1088,7 @@
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -965,15 +1102,25 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="n">
+        <v>32</v>
+      </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
+      <c r="R12" t="n">
+        <v>2270.1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T12"/>
       <c r="U12" t="n">
         <v>57.1</v>
@@ -990,7 +1137,7 @@
         <v>2021</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1004,14 +1151,20 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
+      <c r="R13" t="n">
+        <v>2201</v>
+      </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
@@ -1027,7 +1180,7 @@
         <v>2021</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1040,17 +1193,33 @@
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="J14" t="n">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="n">
+        <v>34</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
+      <c r="R14" t="n">
+        <v>2586</v>
+      </c>
+      <c r="S14" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U14" t="n">
         <v>55.9</v>
       </c>
@@ -1066,7 +1235,7 @@
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1079,17 +1248,33 @@
       </c>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="J15" t="n">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="n">
+        <v>28</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+      <c r="R15" t="n">
+        <v>2235</v>
+      </c>
+      <c r="S15" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U15" t="n">
         <v>55.8</v>
       </c>
@@ -1105,7 +1290,7 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1119,15 +1304,25 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="n">
+        <v>24</v>
+      </c>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
+      <c r="R16" t="n">
+        <v>1405.8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>11.2</v>
+      </c>
       <c r="T16"/>
       <c r="U16" t="n">
         <v>55.6</v>
@@ -1144,7 +1339,7 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1158,14 +1353,20 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
+      <c r="R17" t="n">
+        <v>1866.1</v>
+      </c>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
@@ -1181,7 +1382,7 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1194,17 +1395,33 @@
       </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
+      <c r="J18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="n">
+        <v>38</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
+      <c r="R18" t="n">
+        <v>2154.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U18" t="n">
         <v>57.6</v>
       </c>
@@ -1220,7 +1437,7 @@
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1233,17 +1450,33 @@
       </c>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="J19" t="n">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="n">
+        <v>36</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
+      <c r="R19" t="n">
+        <v>2343.7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U19" t="n">
         <v>56.9</v>
       </c>
@@ -1259,7 +1492,7 @@
         <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1273,15 +1506,25 @@
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="n">
+        <v>34</v>
+      </c>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
+      <c r="R20" t="n">
+        <v>2338</v>
+      </c>
+      <c r="S20" t="n">
+        <v>14</v>
+      </c>
       <c r="T20"/>
       <c r="U20" t="n">
         <v>56.4</v>
@@ -1298,7 +1541,7 @@
         <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1312,14 +1555,20 @@
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21"/>
+      <c r="R21" t="n">
+        <v>1899.6</v>
+      </c>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
@@ -1335,7 +1584,7 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
@@ -1348,17 +1597,33 @@
       </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+      <c r="J22" t="n">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="n">
+        <v>28</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
+      <c r="R22" t="n">
+        <v>2068.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U22" t="n">
         <v>56.2</v>
       </c>
@@ -1374,7 +1639,7 @@
         <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
@@ -1387,17 +1652,33 @@
       </c>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
+      <c r="J23" t="n">
+        <v>19</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="n">
+        <v>28</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
+      <c r="R23" t="n">
+        <v>2445.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U23" t="n">
         <v>56.4</v>
       </c>
@@ -1413,7 +1694,7 @@
         <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -1427,15 +1708,25 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="n">
+        <v>25</v>
+      </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
+      <c r="R24" t="n">
+        <v>2063.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>13.7</v>
+      </c>
       <c r="T24"/>
       <c r="U24" t="n">
         <v>56.8</v>
@@ -1452,7 +1743,7 @@
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
@@ -1466,14 +1757,20 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25"/>
+      <c r="R25" t="n">
+        <v>1822.8</v>
+      </c>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
@@ -1489,7 +1786,7 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -1502,17 +1799,33 @@
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
+      <c r="J26" t="n">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>32</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
+      <c r="R26" t="n">
+        <v>2357</v>
+      </c>
+      <c r="S26" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U26" t="n">
         <v>55.2</v>
       </c>
@@ -1528,7 +1841,7 @@
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -1541,17 +1854,33 @@
       </c>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
+      <c r="J27" t="n">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>28</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
+      <c r="R27" t="n">
+        <v>1781.7</v>
+      </c>
+      <c r="S27" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U27" t="n">
         <v>55</v>
       </c>
@@ -1567,7 +1896,7 @@
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -1581,15 +1910,25 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
+      <c r="K28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="n">
+        <v>24</v>
+      </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
+      <c r="R28" t="n">
+        <v>1585.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>13.8</v>
+      </c>
       <c r="T28"/>
       <c r="U28" t="n">
         <v>54.9</v>
@@ -1606,7 +1945,7 @@
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -1620,14 +1959,20 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
+      <c r="R29" t="n">
+        <v>1736.6</v>
+      </c>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29" t="n">
@@ -1645,7 +1990,7 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -1658,17 +2003,33 @@
       </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
+      <c r="J30" t="n">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>31</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
+      <c r="R30" t="n">
+        <v>2470.6</v>
+      </c>
+      <c r="S30" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U30" t="n">
         <v>55.7</v>
       </c>
@@ -1684,7 +2045,7 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -1697,17 +2058,33 @@
       </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="J31" t="n">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>26</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
+      <c r="R31" t="n">
+        <v>1682</v>
+      </c>
+      <c r="S31" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U31" t="n">
         <v>55.4</v>
       </c>
@@ -1723,7 +2100,7 @@
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -1737,15 +2114,25 @@
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
+      <c r="K32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>30</v>
+      </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
+      <c r="R32" t="n">
+        <v>2104.6</v>
+      </c>
+      <c r="S32" t="n">
+        <v>12.3</v>
+      </c>
       <c r="T32"/>
       <c r="U32" t="n">
         <v>55.6</v>
@@ -1762,7 +2149,7 @@
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -1776,14 +2163,20 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33"/>
+      <c r="R33" t="n">
+        <v>1837.1</v>
+      </c>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
@@ -1799,7 +2192,7 @@
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -1812,17 +2205,33 @@
       </c>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
+      <c r="J34" t="n">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>33</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
+      <c r="R34" t="n">
+        <v>2407.4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U34" t="n">
         <v>56.1</v>
       </c>
@@ -1838,7 +2247,7 @@
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -1851,17 +2260,33 @@
       </c>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
+      <c r="J35" t="n">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>30</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
+      <c r="R35" t="n">
+        <v>2089.5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>14</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U35" t="n">
         <v>55.6</v>
       </c>
@@ -1877,7 +2302,7 @@
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -1891,15 +2316,25 @@
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>32</v>
+      </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
+      <c r="R36" t="n">
+        <v>1883.3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>13.7</v>
+      </c>
       <c r="T36"/>
       <c r="U36" t="n">
         <v>55.6</v>
@@ -1916,7 +2351,7 @@
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -1930,14 +2365,20 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
+      <c r="K37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37"/>
+      <c r="R37" t="n">
+        <v>1751.6</v>
+      </c>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
@@ -1953,7 +2394,7 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -1966,17 +2407,33 @@
       </c>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
+      <c r="J38" t="n">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>28</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
+      <c r="R38" t="n">
+        <v>2361.6</v>
+      </c>
+      <c r="S38" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U38" t="n">
         <v>57.5</v>
       </c>
@@ -1992,7 +2449,7 @@
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -2005,17 +2462,33 @@
       </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
+      <c r="J39" t="n">
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>32</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
+      <c r="R39" t="n">
+        <v>2143.9</v>
+      </c>
+      <c r="S39" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U39" t="n">
         <v>57.2</v>
       </c>
@@ -2031,7 +2504,7 @@
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -2045,15 +2518,25 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" t="n">
+        <v>29</v>
+      </c>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
+      <c r="R40" t="n">
+        <v>1954.3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>13.1</v>
+      </c>
       <c r="T40"/>
       <c r="U40" t="n">
         <v>57.2</v>
@@ -2070,7 +2553,7 @@
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -2084,14 +2567,20 @@
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41"/>
+      <c r="R41" t="n">
+        <v>1574.2</v>
+      </c>
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41"/>
@@ -2107,7 +2596,7 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E42" t="n">
         <v>11</v>
@@ -2120,17 +2609,33 @@
       </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
+      <c r="J42" t="n">
+        <v>18</v>
+      </c>
+      <c r="K42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" t="n">
+        <v>32</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
+      <c r="R42" t="n">
+        <v>1641</v>
+      </c>
+      <c r="S42" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
       <c r="U42" t="n">
         <v>55.8</v>
       </c>
@@ -2146,7 +2651,7 @@
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
@@ -2159,17 +2664,33 @@
       </c>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
+      <c r="J43" t="n">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" t="n">
+        <v>31</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
+      <c r="R43" t="n">
+        <v>1955</v>
+      </c>
+      <c r="S43" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
       <c r="U43" t="n">
         <v>56.3</v>
       </c>
@@ -2185,7 +2706,7 @@
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
@@ -2199,15 +2720,25 @@
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
+      <c r="K44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" t="n">
+        <v>28</v>
+      </c>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
+      <c r="R44" t="n">
+        <v>1650.8</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13.1</v>
+      </c>
       <c r="T44"/>
       <c r="U44" t="n">
         <v>56.2</v>
@@ -2224,7 +2755,7 @@
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -2238,14 +2769,20 @@
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
+      <c r="K45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
+      <c r="R45" t="n">
+        <v>1537.4</v>
+      </c>
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45"/>
@@ -2261,7 +2798,7 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E46" t="n">
         <v>12</v>
@@ -2274,17 +2811,33 @@
       </c>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
+      <c r="J46" t="n">
+        <v>18</v>
+      </c>
+      <c r="K46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" t="n">
+        <v>36</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
+      <c r="R46" t="n">
+        <v>2600.4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1</v>
+      </c>
       <c r="U46" t="n">
         <v>56.2</v>
       </c>
@@ -2300,7 +2853,7 @@
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E47" t="n">
         <v>12</v>
@@ -2313,17 +2866,33 @@
       </c>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
+      <c r="J47" t="n">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" t="n">
+        <v>30</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
+      <c r="R47" t="n">
+        <v>2135.6</v>
+      </c>
+      <c r="S47" t="n">
+        <v>13</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
       <c r="U47" t="n">
         <v>56.3</v>
       </c>
@@ -2339,7 +2908,7 @@
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E48" t="n">
         <v>12</v>
@@ -2353,15 +2922,25 @@
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
+      <c r="K48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" t="n">
+        <v>28</v>
+      </c>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
+      <c r="R48" t="n">
+        <v>1937.4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>12.8</v>
+      </c>
       <c r="T48"/>
       <c r="U48" t="n">
         <v>56</v>
@@ -2378,7 +2957,7 @@
         <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E49" t="n">
         <v>12</v>
@@ -2392,14 +2971,20 @@
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="K49" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
+      <c r="R49" t="n">
+        <v>1534.5</v>
+      </c>
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49" t="n">
@@ -2417,7 +3002,7 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -2429,12 +3014,24 @@
         <v>19</v>
       </c>
       <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
+      <c r="I50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" t="n">
+        <v>19</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" t="n">
+        <v>36</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
@@ -2456,7 +3053,7 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -2469,17 +3066,33 @@
       </c>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
+      <c r="J51" t="n">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" t="n">
+        <v>32</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
+      <c r="R51" t="n">
+        <v>2265.5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>17</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U51" t="n">
         <v>56.3</v>
       </c>
@@ -2495,7 +3108,7 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -2509,15 +3122,25 @@
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
+      <c r="K52" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" t="n">
+        <v>34</v>
+      </c>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
+      <c r="R52" t="n">
+        <v>2151.5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>16.6</v>
+      </c>
       <c r="T52"/>
       <c r="U52" t="n">
         <v>56.6</v>
@@ -2534,7 +3157,7 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -2548,14 +3171,20 @@
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" t="s">
+        <v>28</v>
+      </c>
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
+      <c r="R53" t="n">
+        <v>1771.3</v>
+      </c>
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53"/>
@@ -2571,7 +3200,7 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E54" t="n">
         <v>14</v>
@@ -2584,17 +3213,33 @@
       </c>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
+      <c r="J54" t="n">
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" t="n">
+        <v>31</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
+      <c r="R54" t="n">
+        <v>2331.1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
       <c r="U54" t="n">
         <v>56.7</v>
       </c>
@@ -2610,7 +3255,7 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -2623,17 +3268,33 @@
       </c>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
+      <c r="J55" t="n">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" t="n">
+        <v>36</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
+      <c r="R55" t="n">
+        <v>2145.2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1</v>
+      </c>
       <c r="U55" t="n">
         <v>56.4</v>
       </c>
@@ -2649,7 +3310,7 @@
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E56" t="n">
         <v>14</v>
@@ -2663,15 +3324,25 @@
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
+      <c r="K56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" t="n">
+        <v>30</v>
+      </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
+      <c r="R56" t="n">
+        <v>1989</v>
+      </c>
+      <c r="S56" t="n">
+        <v>11.3</v>
+      </c>
       <c r="T56"/>
       <c r="U56" t="n">
         <v>56.9</v>
@@ -2688,7 +3359,7 @@
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E57" t="n">
         <v>14</v>
@@ -2702,14 +3373,20 @@
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57"/>
+      <c r="R57" t="n">
+        <v>1763.7</v>
+      </c>
       <c r="S57"/>
       <c r="T57"/>
       <c r="U57"/>
@@ -2725,7 +3402,7 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E58" t="n">
         <v>15</v>
@@ -2738,17 +3415,33 @@
       </c>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
+      <c r="J58" t="n">
+        <v>26</v>
+      </c>
+      <c r="K58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" t="n">
+        <v>42</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
+      <c r="R58" t="n">
+        <v>2539.8</v>
+      </c>
+      <c r="S58" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1</v>
+      </c>
       <c r="U58" t="n">
         <v>55</v>
       </c>
@@ -2764,7 +3457,7 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E59" t="n">
         <v>15</v>
@@ -2777,17 +3470,33 @@
       </c>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
+      <c r="J59" t="n">
+        <v>25</v>
+      </c>
+      <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" t="n">
+        <v>32</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
+      <c r="R59" t="n">
+        <v>2069.6</v>
+      </c>
+      <c r="S59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
+      </c>
       <c r="U59" t="n">
         <v>55.7</v>
       </c>
@@ -2803,7 +3512,7 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E60" t="n">
         <v>15</v>
@@ -2817,15 +3526,25 @@
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
+      <c r="K60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" t="n">
+        <v>30</v>
+      </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
+      <c r="R60" t="n">
+        <v>1872.9</v>
+      </c>
+      <c r="S60" t="n">
+        <v>12.9</v>
+      </c>
       <c r="T60"/>
       <c r="U60" t="n">
         <v>55.2</v>
@@ -2842,7 +3561,7 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E61" t="n">
         <v>15</v>
@@ -2856,14 +3575,20 @@
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s">
+        <v>25</v>
+      </c>
       <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61"/>
+      <c r="R61" t="n">
+        <v>1962.1</v>
+      </c>
       <c r="S61"/>
       <c r="T61"/>
       <c r="U61"/>
@@ -2879,7 +3604,7 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -2892,17 +3617,33 @@
       </c>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
+      <c r="J62" t="n">
+        <v>27</v>
+      </c>
+      <c r="K62" t="s">
+        <v>33</v>
+      </c>
+      <c r="L62" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" t="n">
+        <v>40</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
+      <c r="R62" t="n">
+        <v>2782.5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1</v>
+      </c>
       <c r="U62" t="n">
         <v>58.4</v>
       </c>
@@ -2918,7 +3659,7 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -2931,17 +3672,33 @@
       </c>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
+      <c r="J63" t="n">
+        <v>27</v>
+      </c>
+      <c r="K63" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" t="n">
+        <v>24</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
+      <c r="R63" t="n">
+        <v>2066</v>
+      </c>
+      <c r="S63" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1</v>
+      </c>
       <c r="U63" t="n">
         <v>57.8</v>
       </c>
@@ -2957,7 +3714,7 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -2971,15 +3728,25 @@
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
+      <c r="K64" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" t="n">
+        <v>30</v>
+      </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
+      <c r="R64" t="n">
+        <v>1801.6</v>
+      </c>
+      <c r="S64" t="n">
+        <v>14.4</v>
+      </c>
       <c r="T64"/>
       <c r="U64" t="n">
         <v>57.8</v>
@@ -2996,7 +3763,7 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -3010,14 +3777,20 @@
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
+      <c r="K65" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" t="s">
+        <v>25</v>
+      </c>
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65"/>
+      <c r="R65" t="n">
+        <v>1596.4</v>
+      </c>
       <c r="S65"/>
       <c r="T65"/>
       <c r="U65"/>
@@ -3033,7 +3806,7 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E66" t="n">
         <v>17</v>
@@ -3046,17 +3819,33 @@
       </c>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
+      <c r="J66" t="n">
+        <v>28</v>
+      </c>
+      <c r="K66" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" t="s">
+        <v>25</v>
+      </c>
+      <c r="M66" t="n">
+        <v>32</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
+      <c r="R66" t="n">
+        <v>2104.6</v>
+      </c>
+      <c r="S66" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1</v>
+      </c>
       <c r="U66" t="n">
         <v>57.6</v>
       </c>
@@ -3072,7 +3861,7 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E67" t="n">
         <v>17</v>
@@ -3085,17 +3874,33 @@
       </c>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
+      <c r="J67" t="n">
+        <v>28</v>
+      </c>
+      <c r="K67" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" t="n">
+        <v>34</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
+      <c r="R67" t="n">
+        <v>2231.2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1</v>
+      </c>
       <c r="U67" t="n">
         <v>58</v>
       </c>
@@ -3111,7 +3916,7 @@
         <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E68" t="n">
         <v>17</v>
@@ -3125,15 +3930,25 @@
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
+      <c r="K68" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68" t="n">
+        <v>33</v>
+      </c>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
+      <c r="R68" t="n">
+        <v>1978.1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>11.9</v>
+      </c>
       <c r="T68"/>
       <c r="U68" t="n">
         <v>56.5</v>
@@ -3150,7 +3965,7 @@
         <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E69" t="n">
         <v>17</v>
@@ -3164,14 +3979,20 @@
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
+      <c r="K69" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" t="s">
+        <v>25</v>
+      </c>
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69"/>
+      <c r="R69" t="n">
+        <v>1727.6</v>
+      </c>
       <c r="S69"/>
       <c r="T69"/>
       <c r="U69"/>
@@ -3187,7 +4008,7 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E70" t="n">
         <v>18</v>
@@ -3200,17 +4021,33 @@
       </c>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
+      <c r="J70" t="n">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" t="n">
+        <v>28</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
+      <c r="R70" t="n">
+        <v>2211.8</v>
+      </c>
+      <c r="S70" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U70" t="n">
         <v>54.8</v>
       </c>
@@ -3226,7 +4063,7 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E71" t="n">
         <v>18</v>
@@ -3239,17 +4076,33 @@
       </c>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
+      <c r="J71" t="n">
+        <v>20</v>
+      </c>
+      <c r="K71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" t="n">
+        <v>30</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
+      <c r="R71" t="n">
+        <v>2193.1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U71" t="n">
         <v>55.9</v>
       </c>
@@ -3265,7 +4118,7 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E72" t="n">
         <v>18</v>
@@ -3279,15 +4132,25 @@
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" t="n">
+        <v>30</v>
+      </c>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
+      <c r="R72" t="n">
+        <v>2225.8</v>
+      </c>
+      <c r="S72" t="n">
+        <v>11.4</v>
+      </c>
       <c r="T72"/>
       <c r="U72" t="n">
         <v>55.4</v>
@@ -3304,7 +4167,7 @@
         <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E73" t="n">
         <v>18</v>
@@ -3318,14 +4181,20 @@
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" t="s">
+        <v>25</v>
+      </c>
       <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73"/>
+      <c r="R73" t="n">
+        <v>1896</v>
+      </c>
       <c r="S73"/>
       <c r="T73"/>
       <c r="U73"/>
@@ -3341,7 +4210,7 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E74" t="n">
         <v>19</v>
@@ -3354,17 +4223,33 @@
       </c>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
+      <c r="J74" t="n">
+        <v>20</v>
+      </c>
+      <c r="K74" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" t="n">
+        <v>28</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
+      <c r="R74" t="n">
+        <v>2174.4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U74" t="n">
         <v>54.1</v>
       </c>
@@ -3380,7 +4265,7 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E75" t="n">
         <v>19</v>
@@ -3393,17 +4278,33 @@
       </c>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
+      <c r="J75" t="n">
+        <v>20</v>
+      </c>
+      <c r="K75" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" t="n">
+        <v>20</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
+      <c r="R75" t="n">
+        <v>1574.9</v>
+      </c>
+      <c r="S75" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U75" t="n">
         <v>53.8</v>
       </c>
@@ -3419,7 +4320,7 @@
         <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E76" t="n">
         <v>19</v>
@@ -3433,15 +4334,25 @@
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
+      <c r="K76" t="s">
+        <v>33</v>
+      </c>
+      <c r="L76" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" t="n">
+        <v>24</v>
+      </c>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
+      <c r="R76" t="n">
+        <v>1455.3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>14.1</v>
+      </c>
       <c r="T76"/>
       <c r="U76" t="n">
         <v>54.3</v>
@@ -3458,7 +4369,7 @@
         <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E77" t="n">
         <v>19</v>
@@ -3472,14 +4383,20 @@
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
+      <c r="K77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77"/>
+      <c r="R77" t="n">
+        <v>2140</v>
+      </c>
       <c r="S77"/>
       <c r="T77"/>
       <c r="U77"/>
@@ -3495,7 +4412,7 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E78" t="n">
         <v>20</v>
@@ -3508,17 +4425,33 @@
       </c>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
+      <c r="J78" t="n">
+        <v>20</v>
+      </c>
+      <c r="K78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" t="n">
+        <v>37</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
+      <c r="R78" t="n">
+        <v>2400.2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U78" t="n">
         <v>57.7</v>
       </c>
@@ -3534,7 +4467,7 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E79" t="n">
         <v>20</v>
@@ -3547,17 +4480,33 @@
       </c>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
+      <c r="J79" t="n">
+        <v>19</v>
+      </c>
+      <c r="K79" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" t="s">
+        <v>25</v>
+      </c>
+      <c r="M79" t="n">
+        <v>33</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
-      <c r="T79"/>
+      <c r="R79" t="n">
+        <v>1908.3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U79" t="n">
         <v>57.7</v>
       </c>
@@ -3573,7 +4522,7 @@
         <v>2021</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E80" t="n">
         <v>20</v>
@@ -3587,15 +4536,25 @@
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
+      <c r="K80" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" t="n">
+        <v>37</v>
+      </c>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
+      <c r="R80" t="n">
+        <v>2001</v>
+      </c>
+      <c r="S80" t="n">
+        <v>12.3</v>
+      </c>
       <c r="T80"/>
       <c r="U80" t="n">
         <v>58.1</v>
@@ -3612,7 +4571,7 @@
         <v>2021</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E81" t="n">
         <v>20</v>
@@ -3626,14 +4585,20 @@
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
+      <c r="K81" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" t="s">
+        <v>25</v>
+      </c>
       <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81"/>
+      <c r="R81" t="n">
+        <v>1831</v>
+      </c>
       <c r="S81"/>
       <c r="T81"/>
       <c r="U81"/>
@@ -3643,7 +4608,7 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C82" t="n">
         <v>2021</v>
@@ -3663,13 +4628,13 @@
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K82" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L82" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M82" t="n">
         <v>30</v>
@@ -3704,7 +4669,7 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C83" t="n">
         <v>2021</v>
@@ -3724,13 +4689,13 @@
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K83" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L83" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M83" t="n">
         <v>30</v>
@@ -3765,7 +4730,7 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C84" t="n">
         <v>2021</v>
@@ -3785,13 +4750,13 @@
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K84" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L84" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M84" t="n">
         <v>32</v>
@@ -3826,7 +4791,7 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C85" t="n">
         <v>2021</v>
@@ -3846,13 +4811,13 @@
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K85" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L85" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M85" t="n">
         <v>32</v>
@@ -3887,7 +4852,7 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C86" t="n">
         <v>2021</v>
@@ -3908,7 +4873,7 @@
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L86"/>
       <c r="M86"/>
@@ -3938,7 +4903,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C87" t="n">
         <v>2021</v>
@@ -3959,7 +4924,7 @@
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
@@ -3989,7 +4954,7 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C88" t="n">
         <v>2021</v>
@@ -4010,7 +4975,7 @@
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
@@ -4036,13 +5001,13 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C89" t="n">
         <v>2021</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -4056,13 +5021,13 @@
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K89" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L89" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M89" t="n">
         <v>36</v>
@@ -4097,13 +5062,13 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C90" t="n">
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -4117,13 +5082,13 @@
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K90" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L90" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M90" t="n">
         <v>35</v>
@@ -4158,13 +5123,13 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C91" t="n">
         <v>2021</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E91" t="n">
         <v>2</v>
@@ -4179,7 +5144,7 @@
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -4209,13 +5174,13 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C92" t="n">
         <v>2021</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E92" t="n">
         <v>2</v>
@@ -4230,7 +5195,7 @@
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
@@ -4256,13 +5221,13 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C93" t="n">
         <v>2021</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E93" t="n">
         <v>3</v>
@@ -4276,13 +5241,13 @@
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K93" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L93" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M93" t="n">
         <v>32</v>
@@ -4317,13 +5282,13 @@
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C94" t="n">
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E94" t="n">
         <v>3</v>
@@ -4337,13 +5302,13 @@
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K94" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L94" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M94" t="n">
         <v>32</v>
@@ -4378,13 +5343,13 @@
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C95" t="n">
         <v>2021</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -4399,7 +5364,7 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -4429,13 +5394,13 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C96" t="n">
         <v>2021</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E96" t="n">
         <v>3</v>
@@ -4450,7 +5415,7 @@
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -4476,13 +5441,13 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C97" t="n">
         <v>2021</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -4496,13 +5461,13 @@
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K97" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L97" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M97" t="n">
         <v>30</v>
@@ -4537,13 +5502,13 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C98" t="n">
         <v>2021</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -4557,13 +5522,13 @@
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K98" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L98" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M98" t="n">
         <v>31</v>
@@ -4598,13 +5563,13 @@
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C99" t="n">
         <v>2021</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -4619,7 +5584,7 @@
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -4649,13 +5614,13 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C100" t="n">
         <v>2021</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -4670,7 +5635,7 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -4696,13 +5661,13 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C101" t="n">
         <v>2021</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -4716,13 +5681,13 @@
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="n">
+        <v>19</v>
+      </c>
+      <c r="K101" t="s">
         <v>49</v>
       </c>
-      <c r="K101" t="s">
-        <v>44</v>
-      </c>
       <c r="L101" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M101" t="n">
         <v>31</v>
@@ -4757,13 +5722,13 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C102" t="n">
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -4777,13 +5742,13 @@
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K102" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L102" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M102" t="n">
         <v>29</v>
@@ -4818,13 +5783,13 @@
         <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C103" t="n">
         <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -4839,7 +5804,7 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L103"/>
       <c r="M103"/>
@@ -4869,13 +5834,13 @@
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C104" t="n">
         <v>2021</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -4890,7 +5855,7 @@
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L104"/>
       <c r="M104"/>
@@ -4916,13 +5881,13 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C105" t="n">
         <v>2021</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E105" t="n">
         <v>6</v>
@@ -4936,13 +5901,13 @@
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K105" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L105" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M105" t="n">
         <v>24</v>
@@ -4977,13 +5942,13 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C106" t="n">
         <v>2021</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E106" t="n">
         <v>6</v>
@@ -4997,13 +5962,13 @@
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K106" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L106" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M106" t="n">
         <v>26</v>
@@ -5038,13 +6003,13 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C107" t="n">
         <v>2021</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E107" t="n">
         <v>6</v>
@@ -5059,7 +6024,7 @@
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L107"/>
       <c r="M107"/>
@@ -5089,13 +6054,13 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C108" t="n">
         <v>2021</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E108" t="n">
         <v>6</v>
@@ -5110,7 +6075,7 @@
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -5136,13 +6101,13 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C109" t="n">
         <v>2021</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -5156,13 +6121,13 @@
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K109" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L109" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M109" t="n">
         <v>30</v>
@@ -5197,13 +6162,13 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C110" t="n">
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -5217,13 +6182,13 @@
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K110" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L110" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M110" t="n">
         <v>29</v>
@@ -5258,13 +6223,13 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C111" t="n">
         <v>2021</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -5279,7 +6244,7 @@
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L111"/>
       <c r="M111"/>
@@ -5309,13 +6274,13 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C112" t="n">
         <v>2021</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -5330,7 +6295,7 @@
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L112"/>
       <c r="M112"/>
@@ -5356,13 +6321,13 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C113" t="n">
         <v>2021</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -5376,13 +6341,13 @@
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K113" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L113" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M113" t="n">
         <v>35</v>
@@ -5417,13 +6382,13 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C114" t="n">
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -5437,13 +6402,13 @@
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K114" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L114" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M114" t="n">
         <v>33</v>
@@ -5478,13 +6443,13 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C115" t="n">
         <v>2021</v>
       </c>
       <c r="D115" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -5499,7 +6464,7 @@
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L115"/>
       <c r="M115"/>
@@ -5529,13 +6494,13 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C116" t="n">
         <v>2021</v>
       </c>
       <c r="D116" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -5550,7 +6515,7 @@
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L116"/>
       <c r="M116"/>
@@ -5576,13 +6541,13 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C117" t="n">
         <v>2021</v>
       </c>
       <c r="D117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -5596,13 +6561,13 @@
       <c r="H117"/>
       <c r="I117"/>
       <c r="J117" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K117" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L117" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M117" t="n">
         <v>35</v>
@@ -5637,13 +6602,13 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C118" t="n">
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -5657,13 +6622,13 @@
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K118" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L118" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M118" t="n">
         <v>36</v>
@@ -5698,13 +6663,13 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C119" t="n">
         <v>2021</v>
       </c>
       <c r="D119" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -5719,7 +6684,7 @@
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L119"/>
       <c r="M119"/>
@@ -5749,13 +6714,13 @@
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C120" t="n">
         <v>2021</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -5770,7 +6735,7 @@
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L120"/>
       <c r="M120"/>
@@ -5796,13 +6761,13 @@
         <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C121" t="n">
         <v>2021</v>
       </c>
       <c r="D121" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -5816,13 +6781,13 @@
       <c r="H121"/>
       <c r="I121"/>
       <c r="J121" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K121" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L121" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M121" t="n">
         <v>36</v>
@@ -5857,13 +6822,13 @@
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C122" t="n">
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -5877,13 +6842,13 @@
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K122" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L122" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M122" t="n">
         <v>35</v>
@@ -5918,13 +6883,13 @@
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C123" t="n">
         <v>2021</v>
       </c>
       <c r="D123" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -5939,7 +6904,7 @@
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L123"/>
       <c r="M123"/>
@@ -5969,13 +6934,13 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C124" t="n">
         <v>2021</v>
       </c>
       <c r="D124" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -5990,7 +6955,7 @@
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L124"/>
       <c r="M124"/>
@@ -6016,13 +6981,13 @@
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C125" t="n">
         <v>2021</v>
       </c>
       <c r="D125" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E125" t="n">
         <v>11</v>
@@ -6036,13 +7001,13 @@
       <c r="H125"/>
       <c r="I125"/>
       <c r="J125" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K125" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L125" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M125" t="n">
         <v>31</v>
@@ -6077,13 +7042,13 @@
         <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C126" t="n">
         <v>2021</v>
       </c>
       <c r="D126" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E126" t="n">
         <v>11</v>
@@ -6097,13 +7062,13 @@
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K126" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L126" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M126" t="n">
         <v>32</v>
@@ -6138,13 +7103,13 @@
         <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C127" t="n">
         <v>2021</v>
       </c>
       <c r="D127" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E127" t="n">
         <v>11</v>
@@ -6159,7 +7124,7 @@
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L127"/>
       <c r="M127"/>
@@ -6189,13 +7154,13 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C128" t="n">
         <v>2021</v>
       </c>
       <c r="D128" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E128" t="n">
         <v>11</v>
@@ -6210,7 +7175,7 @@
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L128"/>
       <c r="M128"/>
@@ -6236,13 +7201,13 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C129" t="n">
         <v>2021</v>
       </c>
       <c r="D129" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E129" t="n">
         <v>12</v>
@@ -6256,13 +7221,13 @@
       <c r="H129"/>
       <c r="I129"/>
       <c r="J129" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K129" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L129" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M129" t="n">
         <v>29</v>
@@ -6297,13 +7262,13 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C130" t="n">
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E130" t="n">
         <v>12</v>
@@ -6317,13 +7282,13 @@
       <c r="H130"/>
       <c r="I130"/>
       <c r="J130" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K130" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L130" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M130" t="n">
         <v>32</v>
@@ -6358,13 +7323,13 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C131" t="n">
         <v>2021</v>
       </c>
       <c r="D131" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E131" t="n">
         <v>12</v>
@@ -6379,7 +7344,7 @@
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L131"/>
       <c r="M131"/>
@@ -6409,13 +7374,13 @@
         <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C132" t="n">
         <v>2021</v>
       </c>
       <c r="D132" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E132" t="n">
         <v>12</v>
@@ -6430,7 +7395,7 @@
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L132"/>
       <c r="M132"/>
@@ -6456,13 +7421,13 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C133" t="n">
         <v>2021</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -6476,13 +7441,13 @@
       <c r="H133"/>
       <c r="I133"/>
       <c r="J133" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K133" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L133" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M133" t="n">
         <v>38</v>
@@ -6517,13 +7482,13 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C134" t="n">
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -6537,13 +7502,13 @@
       <c r="H134"/>
       <c r="I134"/>
       <c r="J134" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K134" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L134" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M134" t="n">
         <v>37</v>
@@ -6578,13 +7543,13 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C135" t="n">
         <v>2021</v>
       </c>
       <c r="D135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -6599,7 +7564,7 @@
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L135"/>
       <c r="M135"/>
@@ -6629,13 +7594,13 @@
         <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C136" t="n">
         <v>2021</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -6650,7 +7615,7 @@
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L136"/>
       <c r="M136"/>
@@ -6676,13 +7641,13 @@
         <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C137" t="n">
         <v>2021</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E137" t="n">
         <v>14</v>
@@ -6696,13 +7661,13 @@
       <c r="H137"/>
       <c r="I137"/>
       <c r="J137" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K137" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L137" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M137" t="n">
         <v>32</v>
@@ -6737,13 +7702,13 @@
         <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C138" t="n">
         <v>2021</v>
       </c>
       <c r="D138" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E138" t="n">
         <v>14</v>
@@ -6757,13 +7722,13 @@
       <c r="H138"/>
       <c r="I138"/>
       <c r="J138" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K138" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L138" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M138" t="n">
         <v>33</v>
@@ -6798,13 +7763,13 @@
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C139" t="n">
         <v>2021</v>
       </c>
       <c r="D139" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E139" t="n">
         <v>14</v>
@@ -6819,7 +7784,7 @@
       <c r="I139"/>
       <c r="J139"/>
       <c r="K139" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L139"/>
       <c r="M139"/>
@@ -6849,13 +7814,13 @@
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C140" t="n">
         <v>2021</v>
       </c>
       <c r="D140" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E140" t="n">
         <v>14</v>
@@ -6870,7 +7835,7 @@
       <c r="I140"/>
       <c r="J140"/>
       <c r="K140" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L140"/>
       <c r="M140"/>
@@ -6896,13 +7861,13 @@
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C141" t="n">
         <v>2021</v>
       </c>
       <c r="D141" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E141" t="n">
         <v>15</v>
@@ -6916,13 +7881,13 @@
       <c r="H141"/>
       <c r="I141"/>
       <c r="J141" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K141" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L141" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M141" t="n">
         <v>40</v>
@@ -6957,13 +7922,13 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C142" t="n">
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E142" t="n">
         <v>15</v>
@@ -6977,13 +7942,13 @@
       <c r="H142"/>
       <c r="I142"/>
       <c r="J142" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K142" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L142" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M142" t="n">
         <v>42</v>
@@ -7018,13 +7983,13 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C143" t="n">
         <v>2021</v>
       </c>
       <c r="D143" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E143" t="n">
         <v>15</v>
@@ -7039,7 +8004,7 @@
       <c r="I143"/>
       <c r="J143"/>
       <c r="K143" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L143"/>
       <c r="M143"/>
@@ -7069,13 +8034,13 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C144" t="n">
         <v>2021</v>
       </c>
       <c r="D144" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E144" t="n">
         <v>15</v>
@@ -7090,7 +8055,7 @@
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L144"/>
       <c r="M144"/>
@@ -7116,13 +8081,13 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
+        <v>48</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D145" t="s">
         <v>43</v>
-      </c>
-      <c r="C145" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D145" t="s">
-        <v>38</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -7136,13 +8101,13 @@
       <c r="H145"/>
       <c r="I145"/>
       <c r="J145" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K145" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L145" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M145" t="n">
         <v>42</v>
@@ -7177,13 +8142,13 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
+        <v>48</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D146" t="s">
         <v>43</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D146" t="s">
-        <v>38</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -7197,13 +8162,13 @@
       <c r="H146"/>
       <c r="I146"/>
       <c r="J146" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K146" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L146" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M146" t="n">
         <v>43</v>
@@ -7238,13 +8203,13 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D147" t="s">
         <v>43</v>
-      </c>
-      <c r="C147" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D147" t="s">
-        <v>38</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -7259,7 +8224,7 @@
       <c r="I147"/>
       <c r="J147"/>
       <c r="K147" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L147"/>
       <c r="M147"/>
@@ -7289,13 +8254,13 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
+        <v>48</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D148" t="s">
         <v>43</v>
-      </c>
-      <c r="C148" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D148" t="s">
-        <v>38</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -7310,7 +8275,7 @@
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L148"/>
       <c r="M148"/>
@@ -7336,13 +8301,13 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C149" t="n">
         <v>2021</v>
       </c>
       <c r="D149" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E149" t="n">
         <v>17</v>
@@ -7356,13 +8321,13 @@
       <c r="H149"/>
       <c r="I149"/>
       <c r="J149" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K149" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L149" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M149" t="n">
         <v>42</v>
@@ -7397,13 +8362,13 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C150" t="n">
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E150" t="n">
         <v>17</v>
@@ -7417,13 +8382,13 @@
       <c r="H150"/>
       <c r="I150"/>
       <c r="J150" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K150" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L150" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M150" t="n">
         <v>40</v>
@@ -7458,13 +8423,13 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C151" t="n">
         <v>2021</v>
       </c>
       <c r="D151" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E151" t="n">
         <v>17</v>
@@ -7479,7 +8444,7 @@
       <c r="I151"/>
       <c r="J151"/>
       <c r="K151" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L151"/>
       <c r="M151"/>
@@ -7509,13 +8474,13 @@
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C152" t="n">
         <v>2021</v>
       </c>
       <c r="D152" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E152" t="n">
         <v>17</v>
@@ -7530,7 +8495,7 @@
       <c r="I152"/>
       <c r="J152"/>
       <c r="K152" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L152"/>
       <c r="M152"/>
@@ -7560,13 +8525,13 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C153" t="n">
         <v>2021</v>
       </c>
       <c r="D153" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E153" t="n">
         <v>17</v>
@@ -7581,7 +8546,7 @@
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L153"/>
       <c r="M153"/>
@@ -7611,13 +8576,13 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C154" t="n">
         <v>2021</v>
       </c>
       <c r="D154" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E154" t="n">
         <v>17</v>
@@ -7632,7 +8597,7 @@
       <c r="I154"/>
       <c r="J154"/>
       <c r="K154" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L154"/>
       <c r="M154"/>
@@ -7662,13 +8627,13 @@
         <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C155" t="n">
         <v>2021</v>
       </c>
       <c r="D155" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E155" t="n">
         <v>17</v>
@@ -7683,7 +8648,7 @@
       <c r="I155"/>
       <c r="J155"/>
       <c r="K155" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L155"/>
       <c r="M155"/>
@@ -7713,13 +8678,13 @@
         <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C156" t="n">
         <v>2021</v>
       </c>
       <c r="D156" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E156" t="n">
         <v>17</v>
@@ -7734,7 +8699,7 @@
       <c r="I156"/>
       <c r="J156"/>
       <c r="K156" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L156"/>
       <c r="M156"/>
@@ -7760,13 +8725,13 @@
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C157" t="n">
         <v>2021</v>
       </c>
       <c r="D157" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E157" t="n">
         <v>18</v>
@@ -7780,13 +8745,13 @@
       <c r="H157"/>
       <c r="I157"/>
       <c r="J157" t="n">
+        <v>19</v>
+      </c>
+      <c r="K157" t="s">
         <v>49</v>
       </c>
-      <c r="K157" t="s">
-        <v>44</v>
-      </c>
       <c r="L157" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M157" t="n">
         <v>36</v>
@@ -7821,13 +8786,13 @@
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C158" t="n">
         <v>2021</v>
       </c>
       <c r="D158" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E158" t="n">
         <v>18</v>
@@ -7841,13 +8806,13 @@
       <c r="H158"/>
       <c r="I158"/>
       <c r="J158" t="n">
+        <v>19</v>
+      </c>
+      <c r="K158" t="s">
         <v>49</v>
       </c>
-      <c r="K158" t="s">
-        <v>44</v>
-      </c>
       <c r="L158" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M158" t="n">
         <v>40</v>
@@ -7882,13 +8847,13 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C159" t="n">
         <v>2021</v>
       </c>
       <c r="D159" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E159" t="n">
         <v>18</v>
@@ -7903,7 +8868,7 @@
       <c r="I159"/>
       <c r="J159"/>
       <c r="K159" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L159"/>
       <c r="M159"/>
@@ -7933,13 +8898,13 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C160" t="n">
         <v>2021</v>
       </c>
       <c r="D160" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E160" t="n">
         <v>18</v>
@@ -7954,7 +8919,7 @@
       <c r="I160"/>
       <c r="J160"/>
       <c r="K160" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L160"/>
       <c r="M160"/>
@@ -7980,13 +8945,13 @@
         <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C161" t="n">
         <v>2021</v>
       </c>
       <c r="D161" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E161" t="n">
         <v>19</v>
@@ -8000,13 +8965,13 @@
       <c r="H161"/>
       <c r="I161"/>
       <c r="J161" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K161" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L161" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M161" t="n">
         <v>29</v>
@@ -8041,13 +9006,13 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C162" t="n">
         <v>2021</v>
       </c>
       <c r="D162" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E162" t="n">
         <v>19</v>
@@ -8061,13 +9026,13 @@
       <c r="H162"/>
       <c r="I162"/>
       <c r="J162" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K162" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L162" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M162" t="n">
         <v>31</v>
@@ -8102,13 +9067,13 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C163" t="n">
         <v>2021</v>
       </c>
       <c r="D163" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E163" t="n">
         <v>19</v>
@@ -8123,7 +9088,7 @@
       <c r="I163"/>
       <c r="J163"/>
       <c r="K163" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L163"/>
       <c r="M163"/>
@@ -8153,13 +9118,13 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C164" t="n">
         <v>2021</v>
       </c>
       <c r="D164" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E164" t="n">
         <v>19</v>
@@ -8174,7 +9139,7 @@
       <c r="I164"/>
       <c r="J164"/>
       <c r="K164" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L164"/>
       <c r="M164"/>
@@ -8200,13 +9165,13 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C165" t="n">
         <v>2021</v>
       </c>
       <c r="D165" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E165" t="n">
         <v>20</v>
@@ -8220,13 +9185,13 @@
       <c r="H165"/>
       <c r="I165"/>
       <c r="J165" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K165" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L165" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M165" t="n">
         <v>42</v>
@@ -8261,13 +9226,13 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C166" t="n">
         <v>2021</v>
       </c>
       <c r="D166" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E166" t="n">
         <v>20</v>
@@ -8281,13 +9246,13 @@
       <c r="H166"/>
       <c r="I166"/>
       <c r="J166" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K166" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L166" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M166" t="n">
         <v>42</v>
@@ -8322,13 +9287,13 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C167" t="n">
         <v>2021</v>
       </c>
       <c r="D167" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E167" t="n">
         <v>20</v>
@@ -8343,7 +9308,7 @@
       <c r="I167"/>
       <c r="J167"/>
       <c r="K167" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L167"/>
       <c r="M167"/>
@@ -8371,13 +9336,13 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C168" t="n">
         <v>2021</v>
       </c>
       <c r="D168" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E168" t="n">
         <v>20</v>
@@ -8392,7 +9357,7 @@
       <c r="I168"/>
       <c r="J168"/>
       <c r="K168" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L168"/>
       <c r="M168"/>

--- a/exports/yield_files/LP HOLL 6.xlsx
+++ b/exports/yield_files/LP HOLL 6.xlsx
@@ -600,9 +600,15 @@
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="O2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>41.11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>62.25</v>
+      </c>
       <c r="R2" t="n">
         <v>1784.2</v>
       </c>
@@ -655,9 +661,15 @@
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="O3" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="P3" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>62.52</v>
+      </c>
       <c r="R3" t="n">
         <v>1845.6</v>
       </c>
@@ -706,9 +718,15 @@
         <v>30</v>
       </c>
       <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
+      <c r="O4" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="P4" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>62.31</v>
+      </c>
       <c r="R4" t="n">
         <v>1752.4</v>
       </c>
@@ -753,9 +771,15 @@
       </c>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
+      <c r="O5" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="P5" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>63.16</v>
+      </c>
       <c r="R5" t="n">
         <v>1159.6</v>
       </c>
@@ -804,9 +828,15 @@
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="O6" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="P6" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>63.68</v>
+      </c>
       <c r="R6" t="n">
         <v>2176.1</v>
       </c>
@@ -859,9 +889,15 @@
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="O7" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="P7" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>65</v>
+      </c>
       <c r="R7" t="n">
         <v>2109.4</v>
       </c>
@@ -910,9 +946,15 @@
         <v>30</v>
       </c>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
+      <c r="O8" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="P8" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>63.64</v>
+      </c>
       <c r="R8" t="n">
         <v>1824.5</v>
       </c>
@@ -957,9 +999,15 @@
       </c>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
+      <c r="O9" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="P9" t="n">
+        <v>40.99</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>64.15</v>
+      </c>
       <c r="R9" t="n">
         <v>1090.1</v>
       </c>
@@ -1006,9 +1054,15 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
+      <c r="O10" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="P10" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>65.69</v>
+      </c>
       <c r="R10" t="n">
         <v>2443.3</v>
       </c>
@@ -1061,9 +1115,15 @@
       <c r="N11" t="n">
         <v>1</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="O11" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="P11" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>64.36</v>
+      </c>
       <c r="R11" t="n">
         <v>2119.6</v>
       </c>
@@ -1112,9 +1172,15 @@
         <v>32</v>
       </c>
       <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="O12" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="P12" t="n">
+        <v>40.64</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>64.39</v>
+      </c>
       <c r="R12" t="n">
         <v>2270.1</v>
       </c>
@@ -1159,9 +1225,15 @@
       </c>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
+      <c r="O13" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="P13" t="n">
+        <v>41.15</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>65.09</v>
+      </c>
       <c r="R13" t="n">
         <v>2201</v>
       </c>
@@ -1208,9 +1280,15 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="O14" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="P14" t="n">
+        <v>39.36</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>62.91</v>
+      </c>
       <c r="R14" t="n">
         <v>2586</v>
       </c>
@@ -1263,9 +1341,15 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="O15" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="P15" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>63.34</v>
+      </c>
       <c r="R15" t="n">
         <v>2235</v>
       </c>
@@ -1314,9 +1398,15 @@
         <v>24</v>
       </c>
       <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
+      <c r="O16" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="P16" t="n">
+        <v>38.82</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>62.83</v>
+      </c>
       <c r="R16" t="n">
         <v>1405.8</v>
       </c>
@@ -1361,9 +1451,15 @@
       </c>
       <c r="M17"/>
       <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
+      <c r="O17" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="P17" t="n">
+        <v>39.67</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>63.47</v>
+      </c>
       <c r="R17" t="n">
         <v>1866.1</v>
       </c>
@@ -1410,9 +1506,15 @@
       <c r="N18" t="n">
         <v>1.5</v>
       </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
+      <c r="O18" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="P18" t="n">
+        <v>38.34</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>61.83</v>
+      </c>
       <c r="R18" t="n">
         <v>2154.1</v>
       </c>
@@ -1465,9 +1567,15 @@
       <c r="N19" t="n">
         <v>1.5</v>
       </c>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="O19" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="P19" t="n">
+        <v>38.84</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>62.64</v>
+      </c>
       <c r="R19" t="n">
         <v>2343.7</v>
       </c>
@@ -1516,9 +1624,15 @@
         <v>34</v>
       </c>
       <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
+      <c r="O20" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="P20" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>62.28</v>
+      </c>
       <c r="R20" t="n">
         <v>2338</v>
       </c>
@@ -1563,9 +1677,15 @@
       </c>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
+      <c r="O21" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="P21" t="n">
+        <v>38.72</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>62.33</v>
+      </c>
       <c r="R21" t="n">
         <v>1899.6</v>
       </c>
@@ -1612,9 +1732,15 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="O22" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="P22" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>63.56</v>
+      </c>
       <c r="R22" t="n">
         <v>2068.4</v>
       </c>
@@ -1667,9 +1793,15 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O23" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="P23" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>64.02</v>
+      </c>
       <c r="R23" t="n">
         <v>2445.5</v>
       </c>
@@ -1718,9 +1850,15 @@
         <v>25</v>
       </c>
       <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
+      <c r="O24" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="P24" t="n">
+        <v>39.96</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>63.35</v>
+      </c>
       <c r="R24" t="n">
         <v>2063.5</v>
       </c>
@@ -1765,9 +1903,15 @@
       </c>
       <c r="M25"/>
       <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
+      <c r="O25" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="P25" t="n">
+        <v>40.73</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>63.69</v>
+      </c>
       <c r="R25" t="n">
         <v>1822.8</v>
       </c>
@@ -1814,9 +1958,15 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="O26" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="P26" t="n">
+        <v>41.52</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>63.36</v>
+      </c>
       <c r="R26" t="n">
         <v>2357</v>
       </c>
@@ -1869,9 +2019,15 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
+      <c r="O27" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="P27" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>63.91</v>
+      </c>
       <c r="R27" t="n">
         <v>1781.7</v>
       </c>
@@ -1920,9 +2076,15 @@
         <v>24</v>
       </c>
       <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
+      <c r="O28" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="P28" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>64.82</v>
+      </c>
       <c r="R28" t="n">
         <v>1585.7</v>
       </c>
@@ -1967,9 +2129,15 @@
       </c>
       <c r="M29"/>
       <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
+      <c r="O29" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>64.89</v>
+      </c>
       <c r="R29" t="n">
         <v>1736.6</v>
       </c>
@@ -2018,9 +2186,15 @@
       <c r="N30" t="n">
         <v>1.5</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="O30" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="P30" t="n">
+        <v>39.54</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>61.99</v>
+      </c>
       <c r="R30" t="n">
         <v>2470.6</v>
       </c>
@@ -2073,9 +2247,15 @@
       <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
+      <c r="O31" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="P31" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>61</v>
+      </c>
       <c r="R31" t="n">
         <v>1682</v>
       </c>
@@ -2124,9 +2304,15 @@
         <v>30</v>
       </c>
       <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
+      <c r="O32" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="P32" t="n">
+        <v>39.18</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>61.66</v>
+      </c>
       <c r="R32" t="n">
         <v>2104.6</v>
       </c>
@@ -2171,9 +2357,15 @@
       </c>
       <c r="M33"/>
       <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
+      <c r="O33" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="P33" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>61.36</v>
+      </c>
       <c r="R33" t="n">
         <v>1837.1</v>
       </c>
@@ -2220,9 +2412,15 @@
       <c r="N34" t="n">
         <v>1.5</v>
       </c>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
+      <c r="O34" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="P34" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>64.02</v>
+      </c>
       <c r="R34" t="n">
         <v>2407.4</v>
       </c>
@@ -2275,9 +2473,15 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
+      <c r="O35" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="P35" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>63.79</v>
+      </c>
       <c r="R35" t="n">
         <v>2089.5</v>
       </c>
@@ -2326,9 +2530,15 @@
         <v>32</v>
       </c>
       <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
+      <c r="O36" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="P36" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>64.07</v>
+      </c>
       <c r="R36" t="n">
         <v>1883.3</v>
       </c>
@@ -2373,9 +2583,15 @@
       </c>
       <c r="M37"/>
       <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
+      <c r="O37" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="P37" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>64.16</v>
+      </c>
       <c r="R37" t="n">
         <v>1751.6</v>
       </c>
@@ -2422,9 +2638,15 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+      <c r="O38" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="P38" t="n">
+        <v>40.32</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>63.43</v>
+      </c>
       <c r="R38" t="n">
         <v>2361.6</v>
       </c>
@@ -2477,9 +2699,15 @@
       <c r="N39" t="n">
         <v>1.5</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
+      <c r="O39" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="P39" t="n">
+        <v>39.15</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>62.47</v>
+      </c>
       <c r="R39" t="n">
         <v>2143.9</v>
       </c>
@@ -2528,9 +2756,15 @@
         <v>29</v>
       </c>
       <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
+      <c r="O40" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="P40" t="n">
+        <v>39.59</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>63.03</v>
+      </c>
       <c r="R40" t="n">
         <v>1954.3</v>
       </c>
@@ -2575,9 +2809,15 @@
       </c>
       <c r="M41"/>
       <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
+      <c r="O41" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="P41" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>63.75</v>
+      </c>
       <c r="R41" t="n">
         <v>1574.2</v>
       </c>
@@ -2624,9 +2864,15 @@
       <c r="N42" t="n">
         <v>1</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
+      <c r="O42" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="P42" t="n">
+        <v>38.87</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>62.55</v>
+      </c>
       <c r="R42" t="n">
         <v>1641</v>
       </c>
@@ -2679,9 +2925,15 @@
       <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
+      <c r="O43" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="P43" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>63.05</v>
+      </c>
       <c r="R43" t="n">
         <v>1955</v>
       </c>
@@ -2730,9 +2982,15 @@
         <v>28</v>
       </c>
       <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
+      <c r="O44" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="P44" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>62.47</v>
+      </c>
       <c r="R44" t="n">
         <v>1650.8</v>
       </c>
@@ -2777,9 +3035,15 @@
       </c>
       <c r="M45"/>
       <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
+      <c r="O45" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="P45" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>63.08</v>
+      </c>
       <c r="R45" t="n">
         <v>1537.4</v>
       </c>
@@ -2826,9 +3090,15 @@
       <c r="N46" t="n">
         <v>1.5</v>
       </c>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
+      <c r="O46" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="P46" t="n">
+        <v>38.72</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>62.83</v>
+      </c>
       <c r="R46" t="n">
         <v>2600.4</v>
       </c>
@@ -2881,9 +3151,15 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
+      <c r="O47" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="P47" t="n">
+        <v>38.13</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>62.29</v>
+      </c>
       <c r="R47" t="n">
         <v>2135.6</v>
       </c>
@@ -2932,9 +3208,15 @@
         <v>28</v>
       </c>
       <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
+      <c r="O48" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="P48" t="n">
+        <v>36.76</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>60.65</v>
+      </c>
       <c r="R48" t="n">
         <v>1937.4</v>
       </c>
@@ -2979,9 +3261,15 @@
       </c>
       <c r="M49"/>
       <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
+      <c r="O49" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="P49" t="n">
+        <v>36.67</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>60.6</v>
+      </c>
       <c r="R49" t="n">
         <v>1534.5</v>
       </c>
@@ -3081,9 +3369,15 @@
       <c r="N51" t="n">
         <v>1.5</v>
       </c>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
+      <c r="O51" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="P51" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>63.68</v>
+      </c>
       <c r="R51" t="n">
         <v>2265.5</v>
       </c>
@@ -3132,9 +3426,15 @@
         <v>34</v>
       </c>
       <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
+      <c r="O52" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="P52" t="n">
+        <v>42.49</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>64.98</v>
+      </c>
       <c r="R52" t="n">
         <v>2151.5</v>
       </c>
@@ -3179,9 +3479,15 @@
       </c>
       <c r="M53"/>
       <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
+      <c r="O53" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="P53" t="n">
+        <v>41.04</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>64.21</v>
+      </c>
       <c r="R53" t="n">
         <v>1771.3</v>
       </c>
@@ -3228,9 +3534,15 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
+      <c r="O54" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="P54" t="n">
+        <v>40.79</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>62.34</v>
+      </c>
       <c r="R54" t="n">
         <v>2331.1</v>
       </c>
@@ -3283,9 +3595,15 @@
       <c r="N55" t="n">
         <v>1</v>
       </c>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
+      <c r="O55" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="P55" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>61.93</v>
+      </c>
       <c r="R55" t="n">
         <v>2145.2</v>
       </c>
@@ -3334,9 +3652,15 @@
         <v>30</v>
       </c>
       <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
+      <c r="O56" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="P56" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>60.73</v>
+      </c>
       <c r="R56" t="n">
         <v>1989</v>
       </c>
@@ -3381,9 +3705,15 @@
       </c>
       <c r="M57"/>
       <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
+      <c r="O57" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="P57" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>63.04</v>
+      </c>
       <c r="R57" t="n">
         <v>1763.7</v>
       </c>
@@ -3430,9 +3760,15 @@
       <c r="N58" t="n">
         <v>1.5</v>
       </c>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
+      <c r="O58" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="P58" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>63.14</v>
+      </c>
       <c r="R58" t="n">
         <v>2539.8</v>
       </c>
@@ -3485,9 +3821,15 @@
       <c r="N59" t="n">
         <v>1.5</v>
       </c>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
+      <c r="O59" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="P59" t="n">
+        <v>40.02</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>61.98</v>
+      </c>
       <c r="R59" t="n">
         <v>2069.6</v>
       </c>
@@ -3536,9 +3878,15 @@
         <v>30</v>
       </c>
       <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
+      <c r="O60" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="P60" t="n">
+        <v>41.35</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>63.02</v>
+      </c>
       <c r="R60" t="n">
         <v>1872.9</v>
       </c>
@@ -3583,9 +3931,15 @@
       </c>
       <c r="M61"/>
       <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
+      <c r="O61" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="P61" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>62.38</v>
+      </c>
       <c r="R61" t="n">
         <v>1962.1</v>
       </c>
@@ -3632,9 +3986,15 @@
       <c r="N62" t="n">
         <v>1.5</v>
       </c>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="O62" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="P62" t="n">
+        <v>38.92</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>61.76</v>
+      </c>
       <c r="R62" t="n">
         <v>2782.5</v>
       </c>
@@ -3687,9 +4047,15 @@
       <c r="N63" t="n">
         <v>1</v>
       </c>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
+      <c r="O63" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="P63" t="n">
+        <v>39.04</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>62.36</v>
+      </c>
       <c r="R63" t="n">
         <v>2066</v>
       </c>
@@ -3738,9 +4104,15 @@
         <v>30</v>
       </c>
       <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
+      <c r="O64" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="P64" t="n">
+        <v>38.49</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>61.87</v>
+      </c>
       <c r="R64" t="n">
         <v>1801.6</v>
       </c>
@@ -3785,9 +4157,15 @@
       </c>
       <c r="M65"/>
       <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
+      <c r="O65" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="P65" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>62.38</v>
+      </c>
       <c r="R65" t="n">
         <v>1596.4</v>
       </c>
@@ -3834,9 +4212,15 @@
       <c r="N66" t="n">
         <v>1.5</v>
       </c>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+      <c r="O66" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="P66" t="n">
+        <v>38.73</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>60.59</v>
+      </c>
       <c r="R66" t="n">
         <v>2104.6</v>
       </c>
@@ -3889,9 +4273,15 @@
       <c r="N67" t="n">
         <v>1.5</v>
       </c>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
+      <c r="O67" t="n">
+        <v>22</v>
+      </c>
+      <c r="P67" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>61.41</v>
+      </c>
       <c r="R67" t="n">
         <v>2231.2</v>
       </c>
@@ -3940,9 +4330,15 @@
         <v>33</v>
       </c>
       <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
+      <c r="O68" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="P68" t="n">
+        <v>38.45</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>61.02</v>
+      </c>
       <c r="R68" t="n">
         <v>1978.1</v>
       </c>
@@ -3987,9 +4383,15 @@
       </c>
       <c r="M69"/>
       <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
+      <c r="O69" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="P69" t="n">
+        <v>38.76</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>61.1</v>
+      </c>
       <c r="R69" t="n">
         <v>1727.6</v>
       </c>
@@ -4036,9 +4438,15 @@
       <c r="N70" t="n">
         <v>1.5</v>
       </c>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
+      <c r="O70" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="P70" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>63.11</v>
+      </c>
       <c r="R70" t="n">
         <v>2211.8</v>
       </c>
@@ -4091,9 +4499,15 @@
       <c r="N71" t="n">
         <v>1.5</v>
       </c>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
+      <c r="O71" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="P71" t="n">
+        <v>41.06</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>62.93</v>
+      </c>
       <c r="R71" t="n">
         <v>2193.1</v>
       </c>
@@ -4142,9 +4556,15 @@
         <v>30</v>
       </c>
       <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
+      <c r="O72" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>40.81</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>62.33</v>
+      </c>
       <c r="R72" t="n">
         <v>2225.8</v>
       </c>
@@ -4189,9 +4609,15 @@
       </c>
       <c r="M73"/>
       <c r="N73"/>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
+      <c r="O73" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="P73" t="n">
+        <v>41.14</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>63.1</v>
+      </c>
       <c r="R73" t="n">
         <v>1896</v>
       </c>
@@ -4238,9 +4664,15 @@
       <c r="N74" t="n">
         <v>1.5</v>
       </c>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+      <c r="O74" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="P74" t="n">
+        <v>38.74</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>62.5</v>
+      </c>
       <c r="R74" t="n">
         <v>2174.4</v>
       </c>
@@ -4293,9 +4725,15 @@
       <c r="N75" t="n">
         <v>1</v>
       </c>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
+      <c r="O75" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="P75" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>61.42</v>
+      </c>
       <c r="R75" t="n">
         <v>1574.9</v>
       </c>
@@ -4344,9 +4782,15 @@
         <v>24</v>
       </c>
       <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
+      <c r="O76" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="P76" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>62.06</v>
+      </c>
       <c r="R76" t="n">
         <v>1455.3</v>
       </c>
@@ -4391,9 +4835,15 @@
       </c>
       <c r="M77"/>
       <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
+      <c r="O77" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="P77" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>62.35</v>
+      </c>
       <c r="R77" t="n">
         <v>2140</v>
       </c>
@@ -4440,9 +4890,15 @@
       <c r="N78" t="n">
         <v>2</v>
       </c>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
+      <c r="O78" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="P78" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>63.76</v>
+      </c>
       <c r="R78" t="n">
         <v>2400.2</v>
       </c>
@@ -4495,9 +4951,15 @@
       <c r="N79" t="n">
         <v>1</v>
       </c>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
+      <c r="O79" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="P79" t="n">
+        <v>41.29</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>63.23</v>
+      </c>
       <c r="R79" t="n">
         <v>1908.3</v>
       </c>
@@ -4546,9 +5008,15 @@
         <v>37</v>
       </c>
       <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
+      <c r="O80" t="n">
+        <v>22</v>
+      </c>
+      <c r="P80" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>62.77</v>
+      </c>
       <c r="R80" t="n">
         <v>2001</v>
       </c>
@@ -4593,9 +5061,15 @@
       </c>
       <c r="M81"/>
       <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
+      <c r="O81" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="P81" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>63.9</v>
+      </c>
       <c r="R81" t="n">
         <v>1831</v>
       </c>

--- a/exports/yield_files/LP HOLL 6.xlsx
+++ b/exports/yield_files/LP HOLL 6.xlsx
@@ -5155,15 +5155,15 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K83" t="s">
         <v>49</v>
@@ -5172,31 +5172,31 @@
         <v>25</v>
       </c>
       <c r="M83" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N83" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O83" t="n">
-        <v>20.56</v>
+        <v>21.34</v>
       </c>
       <c r="P83" t="n">
-        <v>44.07</v>
+        <v>43.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>64.63</v>
+        <v>64.84</v>
       </c>
       <c r="R83" t="n">
-        <v>2029</v>
+        <v>2085.9</v>
       </c>
       <c r="S83" t="n">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="T83" t="n">
         <v>1.5</v>
       </c>
       <c r="U83" t="n">
-        <v>57.6</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="84">
@@ -5216,48 +5216,38 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
-      <c r="J84" t="n">
-        <v>13</v>
-      </c>
+      <c r="J84"/>
       <c r="K84" t="s">
         <v>49</v>
       </c>
-      <c r="L84" t="s">
-        <v>25</v>
-      </c>
-      <c r="M84" t="n">
-        <v>32</v>
-      </c>
-      <c r="N84" t="n">
-        <v>2</v>
-      </c>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
       <c r="O84" t="n">
-        <v>21.34</v>
+        <v>20.7</v>
       </c>
       <c r="P84" t="n">
-        <v>43.5</v>
+        <v>43.32</v>
       </c>
       <c r="Q84" t="n">
-        <v>64.84</v>
+        <v>64.02</v>
       </c>
       <c r="R84" t="n">
-        <v>2085.9</v>
+        <v>1892.1</v>
       </c>
       <c r="S84" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="T84" t="n">
-        <v>1.5</v>
-      </c>
+        <v>12.4</v>
+      </c>
+      <c r="T84"/>
       <c r="U84" t="n">
-        <v>57.5</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="85">
@@ -5277,49 +5267,35 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
-      <c r="J85" t="n">
-        <v>13</v>
-      </c>
+      <c r="J85"/>
       <c r="K85" t="s">
         <v>49</v>
       </c>
-      <c r="L85" t="s">
-        <v>25</v>
-      </c>
-      <c r="M85" t="n">
-        <v>32</v>
-      </c>
-      <c r="N85" t="n">
-        <v>2</v>
-      </c>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
       <c r="O85" t="n">
-        <v>21.34</v>
+        <v>21.1</v>
       </c>
       <c r="P85" t="n">
-        <v>43.5</v>
+        <v>45.02</v>
       </c>
       <c r="Q85" t="n">
-        <v>64.84</v>
+        <v>66.12</v>
       </c>
       <c r="R85" t="n">
-        <v>2085.9</v>
-      </c>
-      <c r="S85" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="T85" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U85" t="n">
-        <v>57.9</v>
-      </c>
+        <v>2087.4</v>
+      </c>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -5332,44 +5308,54 @@
         <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
-      <c r="J86"/>
+      <c r="J86" t="n">
+        <v>11</v>
+      </c>
       <c r="K86" t="s">
         <v>49</v>
       </c>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
+      <c r="L86" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" t="n">
+        <v>36</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O86" t="n">
-        <v>20.7</v>
+        <v>21.23</v>
       </c>
       <c r="P86" t="n">
-        <v>43.32</v>
+        <v>45.56</v>
       </c>
       <c r="Q86" t="n">
-        <v>64.02</v>
+        <v>66.79</v>
       </c>
       <c r="R86" t="n">
-        <v>1892.1</v>
+        <v>1807.6</v>
       </c>
       <c r="S86" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="T86"/>
+        <v>12</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2</v>
+      </c>
       <c r="U86" t="n">
-        <v>56.9</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="87">
@@ -5383,44 +5369,54 @@
         <v>2021</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
-      <c r="J87"/>
+      <c r="J87" t="n">
+        <v>15</v>
+      </c>
       <c r="K87" t="s">
         <v>49</v>
       </c>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
+      <c r="L87" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" t="n">
+        <v>35</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
       <c r="O87" t="n">
-        <v>20.7</v>
+        <v>21.13</v>
       </c>
       <c r="P87" t="n">
-        <v>43.32</v>
+        <v>45.37</v>
       </c>
       <c r="Q87" t="n">
-        <v>64.02</v>
+        <v>66.5</v>
       </c>
       <c r="R87" t="n">
-        <v>1892.1</v>
+        <v>2098.9</v>
       </c>
       <c r="S87" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="T87"/>
+        <v>12.1</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2</v>
+      </c>
       <c r="U87" t="n">
-        <v>57.9</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="88">
@@ -5434,16 +5430,16 @@
         <v>2021</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H88"/>
       <c r="I88"/>
@@ -5455,20 +5451,24 @@
       <c r="M88"/>
       <c r="N88"/>
       <c r="O88" t="n">
-        <v>21.1</v>
+        <v>20.67</v>
       </c>
       <c r="P88" t="n">
-        <v>45.02</v>
+        <v>46.04</v>
       </c>
       <c r="Q88" t="n">
-        <v>66.12</v>
+        <v>66.71</v>
       </c>
       <c r="R88" t="n">
-        <v>2087.4</v>
-      </c>
-      <c r="S88"/>
+        <v>1704.1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>11</v>
+      </c>
       <c r="T88"/>
-      <c r="U88"/>
+      <c r="U88" t="n">
+        <v>57.3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -5487,49 +5487,35 @@
         <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
-      <c r="J89" t="n">
-        <v>11</v>
-      </c>
+      <c r="J89"/>
       <c r="K89" t="s">
         <v>49</v>
       </c>
-      <c r="L89" t="s">
-        <v>25</v>
-      </c>
-      <c r="M89" t="n">
-        <v>36</v>
-      </c>
-      <c r="N89" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
       <c r="O89" t="n">
-        <v>21.23</v>
+        <v>20.87</v>
       </c>
       <c r="P89" t="n">
-        <v>45.56</v>
+        <v>44.47</v>
       </c>
       <c r="Q89" t="n">
-        <v>66.79</v>
+        <v>65.34</v>
       </c>
       <c r="R89" t="n">
-        <v>1807.6</v>
-      </c>
-      <c r="S89" t="n">
-        <v>12</v>
-      </c>
-      <c r="T89" t="n">
-        <v>2</v>
-      </c>
-      <c r="U89" t="n">
-        <v>57.1</v>
-      </c>
+        <v>1827.6</v>
+      </c>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -5542,54 +5528,54 @@
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K90" t="s">
         <v>49</v>
       </c>
       <c r="L90" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M90" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>21.13</v>
+        <v>23.63</v>
       </c>
       <c r="P90" t="n">
-        <v>45.37</v>
+        <v>42.8</v>
       </c>
       <c r="Q90" t="n">
-        <v>66.5</v>
+        <v>66.43</v>
       </c>
       <c r="R90" t="n">
-        <v>2098.9</v>
+        <v>2282.3</v>
       </c>
       <c r="S90" t="n">
-        <v>12.1</v>
+        <v>15.4</v>
       </c>
       <c r="T90" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U90" t="n">
-        <v>56.9</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="91">
@@ -5603,44 +5589,54 @@
         <v>2021</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
         <v>2</v>
       </c>
-      <c r="F91" t="n">
-        <v>3</v>
-      </c>
       <c r="G91" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
-      <c r="J91"/>
+      <c r="J91" t="n">
+        <v>18</v>
+      </c>
       <c r="K91" t="s">
         <v>49</v>
       </c>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
+      <c r="L91" t="s">
+        <v>28</v>
+      </c>
+      <c r="M91" t="n">
+        <v>32</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O91" t="n">
-        <v>20.67</v>
+        <v>23.06</v>
       </c>
       <c r="P91" t="n">
-        <v>46.04</v>
+        <v>43.93</v>
       </c>
       <c r="Q91" t="n">
-        <v>66.71</v>
+        <v>66.99</v>
       </c>
       <c r="R91" t="n">
-        <v>1704.1</v>
+        <v>1991.5</v>
       </c>
       <c r="S91" t="n">
-        <v>11</v>
-      </c>
-      <c r="T91"/>
+        <v>16.1</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U91" t="n">
-        <v>57.3</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="92">
@@ -5654,16 +5650,16 @@
         <v>2021</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
@@ -5675,20 +5671,24 @@
       <c r="M92"/>
       <c r="N92"/>
       <c r="O92" t="n">
-        <v>20.87</v>
+        <v>23.35</v>
       </c>
       <c r="P92" t="n">
-        <v>44.47</v>
+        <v>43.23</v>
       </c>
       <c r="Q92" t="n">
-        <v>65.34</v>
+        <v>66.58</v>
       </c>
       <c r="R92" t="n">
-        <v>1827.6</v>
-      </c>
-      <c r="S92"/>
+        <v>2036.7</v>
+      </c>
+      <c r="S92" t="n">
+        <v>14.6</v>
+      </c>
       <c r="T92"/>
-      <c r="U92"/>
+      <c r="U92" t="n">
+        <v>57.7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -5707,49 +5707,35 @@
         <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
-      <c r="J93" t="n">
-        <v>17</v>
-      </c>
+      <c r="J93"/>
       <c r="K93" t="s">
         <v>49</v>
       </c>
-      <c r="L93" t="s">
-        <v>28</v>
-      </c>
-      <c r="M93" t="n">
-        <v>32</v>
-      </c>
-      <c r="N93" t="n">
-        <v>1</v>
-      </c>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
       <c r="O93" t="n">
-        <v>23.63</v>
+        <v>23.09</v>
       </c>
       <c r="P93" t="n">
-        <v>42.8</v>
+        <v>43.67</v>
       </c>
       <c r="Q93" t="n">
-        <v>66.43</v>
+        <v>66.76</v>
       </c>
       <c r="R93" t="n">
-        <v>2282.3</v>
-      </c>
-      <c r="S93" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="T93" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U93" t="n">
-        <v>56.4</v>
-      </c>
+        <v>1691.1</v>
+      </c>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -5762,21 +5748,21 @@
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K94" t="s">
         <v>49</v>
@@ -5785,31 +5771,31 @@
         <v>28</v>
       </c>
       <c r="M94" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N94" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O94" t="n">
-        <v>23.06</v>
+        <v>23.22</v>
       </c>
       <c r="P94" t="n">
-        <v>43.93</v>
+        <v>42.52</v>
       </c>
       <c r="Q94" t="n">
-        <v>66.99</v>
+        <v>65.74</v>
       </c>
       <c r="R94" t="n">
-        <v>1991.5</v>
+        <v>2403.6</v>
       </c>
       <c r="S94" t="n">
-        <v>16.1</v>
+        <v>13.4</v>
       </c>
       <c r="T94" t="n">
         <v>1.5</v>
       </c>
       <c r="U94" t="n">
-        <v>57.4</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="95">
@@ -5823,44 +5809,54 @@
         <v>2021</v>
       </c>
       <c r="D95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
-      <c r="J95"/>
+      <c r="J95" t="n">
+        <v>17</v>
+      </c>
       <c r="K95" t="s">
         <v>49</v>
       </c>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
+      <c r="L95" t="s">
+        <v>28</v>
+      </c>
+      <c r="M95" t="n">
+        <v>31</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
       <c r="O95" t="n">
-        <v>23.35</v>
+        <v>22.49</v>
       </c>
       <c r="P95" t="n">
-        <v>43.23</v>
+        <v>43.86</v>
       </c>
       <c r="Q95" t="n">
-        <v>66.58</v>
+        <v>66.35</v>
       </c>
       <c r="R95" t="n">
-        <v>2036.7</v>
+        <v>1801.3</v>
       </c>
       <c r="S95" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="T95"/>
+        <v>12.5</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U95" t="n">
-        <v>57.7</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="96">
@@ -5874,16 +5870,16 @@
         <v>2021</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
         <v>3</v>
       </c>
-      <c r="F96" t="n">
-        <v>4</v>
-      </c>
       <c r="G96" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H96"/>
       <c r="I96"/>
@@ -5895,20 +5891,24 @@
       <c r="M96"/>
       <c r="N96"/>
       <c r="O96" t="n">
-        <v>23.09</v>
+        <v>23.15</v>
       </c>
       <c r="P96" t="n">
-        <v>43.67</v>
+        <v>43.14</v>
       </c>
       <c r="Q96" t="n">
-        <v>66.76</v>
+        <v>66.29</v>
       </c>
       <c r="R96" t="n">
-        <v>1691.1</v>
-      </c>
-      <c r="S96"/>
+        <v>2133</v>
+      </c>
+      <c r="S96" t="n">
+        <v>12.7</v>
+      </c>
       <c r="T96"/>
-      <c r="U96"/>
+      <c r="U96" t="n">
+        <v>56.3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -5927,49 +5927,35 @@
         <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
-      <c r="J97" t="n">
-        <v>16</v>
-      </c>
+      <c r="J97"/>
       <c r="K97" t="s">
         <v>49</v>
       </c>
-      <c r="L97" t="s">
-        <v>28</v>
-      </c>
-      <c r="M97" t="n">
-        <v>30</v>
-      </c>
-      <c r="N97" t="n">
-        <v>1</v>
-      </c>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
       <c r="O97" t="n">
-        <v>23.22</v>
+        <v>23.45</v>
       </c>
       <c r="P97" t="n">
-        <v>42.52</v>
+        <v>42.81</v>
       </c>
       <c r="Q97" t="n">
-        <v>65.74</v>
+        <v>66.26</v>
       </c>
       <c r="R97" t="n">
-        <v>2403.6</v>
-      </c>
-      <c r="S97" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T97" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U97" t="n">
-        <v>55.2</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -5982,21 +5968,21 @@
         <v>2021</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K98" t="s">
         <v>49</v>
@@ -6008,28 +5994,28 @@
         <v>31</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="O98" t="n">
-        <v>22.49</v>
+        <v>23.1</v>
       </c>
       <c r="P98" t="n">
-        <v>43.86</v>
+        <v>42.6</v>
       </c>
       <c r="Q98" t="n">
-        <v>66.35</v>
+        <v>65.7</v>
       </c>
       <c r="R98" t="n">
-        <v>1801.3</v>
+        <v>2138</v>
       </c>
       <c r="S98" t="n">
-        <v>12.5</v>
+        <v>15.3</v>
       </c>
       <c r="T98" t="n">
         <v>1.5</v>
       </c>
       <c r="U98" t="n">
-        <v>56.9</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="99">
@@ -6043,44 +6029,54 @@
         <v>2021</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
-      <c r="J99"/>
+      <c r="J99" t="n">
+        <v>18</v>
+      </c>
       <c r="K99" t="s">
         <v>49</v>
       </c>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
+      <c r="L99" t="s">
+        <v>28</v>
+      </c>
+      <c r="M99" t="n">
+        <v>29</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O99" t="n">
-        <v>23.15</v>
+        <v>23.25</v>
       </c>
       <c r="P99" t="n">
-        <v>43.14</v>
+        <v>41.32</v>
       </c>
       <c r="Q99" t="n">
-        <v>66.29</v>
+        <v>64.57</v>
       </c>
       <c r="R99" t="n">
-        <v>2133</v>
+        <v>1914.1</v>
       </c>
       <c r="S99" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="T99"/>
+        <v>14.7</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1</v>
+      </c>
       <c r="U99" t="n">
-        <v>56.3</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="100">
@@ -6094,16 +6090,16 @@
         <v>2021</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
@@ -6115,20 +6111,24 @@
       <c r="M100"/>
       <c r="N100"/>
       <c r="O100" t="n">
-        <v>23.45</v>
+        <v>22.81</v>
       </c>
       <c r="P100" t="n">
-        <v>42.81</v>
+        <v>42.91</v>
       </c>
       <c r="Q100" t="n">
-        <v>66.26</v>
+        <v>65.72</v>
       </c>
       <c r="R100" t="n">
-        <v>1834</v>
-      </c>
-      <c r="S100"/>
+        <v>2097.5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>15.2</v>
+      </c>
       <c r="T100"/>
-      <c r="U100"/>
+      <c r="U100" t="n">
+        <v>56.9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -6147,49 +6147,35 @@
         <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G101" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
-      <c r="J101" t="n">
-        <v>19</v>
-      </c>
+      <c r="J101"/>
       <c r="K101" t="s">
         <v>49</v>
       </c>
-      <c r="L101" t="s">
-        <v>28</v>
-      </c>
-      <c r="M101" t="n">
-        <v>31</v>
-      </c>
-      <c r="N101" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
       <c r="O101" t="n">
-        <v>23.1</v>
+        <v>22.87</v>
       </c>
       <c r="P101" t="n">
-        <v>42.6</v>
+        <v>42.34</v>
       </c>
       <c r="Q101" t="n">
-        <v>65.7</v>
+        <v>65.21</v>
       </c>
       <c r="R101" t="n">
-        <v>2138</v>
-      </c>
-      <c r="S101" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="T101" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U101" t="n">
-        <v>55.5</v>
-      </c>
+        <v>1928.6</v>
+      </c>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -6202,21 +6188,21 @@
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K102" t="s">
         <v>49</v>
@@ -6225,31 +6211,31 @@
         <v>28</v>
       </c>
       <c r="M102" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N102" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>23.25</v>
+        <v>22.62</v>
       </c>
       <c r="P102" t="n">
         <v>41.32</v>
       </c>
       <c r="Q102" t="n">
-        <v>64.57</v>
+        <v>63.94</v>
       </c>
       <c r="R102" t="n">
-        <v>1914.1</v>
+        <v>2207</v>
       </c>
       <c r="S102" t="n">
-        <v>14.7</v>
+        <v>19.3</v>
       </c>
       <c r="T102" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U102" t="n">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="103">
@@ -6263,44 +6249,54 @@
         <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
-      <c r="J103"/>
+      <c r="J103" t="n">
+        <v>13</v>
+      </c>
       <c r="K103" t="s">
         <v>49</v>
       </c>
-      <c r="L103"/>
-      <c r="M103"/>
-      <c r="N103"/>
+      <c r="L103" t="s">
+        <v>28</v>
+      </c>
+      <c r="M103" t="n">
+        <v>26</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
       <c r="O103" t="n">
-        <v>22.81</v>
+        <v>22.44</v>
       </c>
       <c r="P103" t="n">
-        <v>42.91</v>
+        <v>42.45</v>
       </c>
       <c r="Q103" t="n">
-        <v>65.72</v>
+        <v>64.89</v>
       </c>
       <c r="R103" t="n">
-        <v>2097.5</v>
+        <v>2185</v>
       </c>
       <c r="S103" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="T103"/>
+        <v>12.9</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U103" t="n">
-        <v>56.9</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="104">
@@ -6314,16 +6310,16 @@
         <v>2021</v>
       </c>
       <c r="D104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G104" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
@@ -6335,20 +6331,24 @@
       <c r="M104"/>
       <c r="N104"/>
       <c r="O104" t="n">
-        <v>22.87</v>
+        <v>22.9</v>
       </c>
       <c r="P104" t="n">
-        <v>42.34</v>
+        <v>41.51</v>
       </c>
       <c r="Q104" t="n">
-        <v>65.21</v>
+        <v>64.41</v>
       </c>
       <c r="R104" t="n">
-        <v>1928.6</v>
-      </c>
-      <c r="S104"/>
+        <v>2060.3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>13.3</v>
+      </c>
       <c r="T104"/>
-      <c r="U104"/>
+      <c r="U104" t="n">
+        <v>57.8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -6367,49 +6367,35 @@
         <v>6</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G105" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
-      <c r="J105" t="n">
-        <v>16</v>
-      </c>
+      <c r="J105"/>
       <c r="K105" t="s">
         <v>49</v>
       </c>
-      <c r="L105" t="s">
-        <v>28</v>
-      </c>
-      <c r="M105" t="n">
-        <v>24</v>
-      </c>
-      <c r="N105" t="n">
-        <v>1</v>
-      </c>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
       <c r="O105" t="n">
-        <v>22.62</v>
+        <v>21.92</v>
       </c>
       <c r="P105" t="n">
-        <v>41.32</v>
+        <v>42.37</v>
       </c>
       <c r="Q105" t="n">
-        <v>63.94</v>
+        <v>64.29</v>
       </c>
       <c r="R105" t="n">
-        <v>2207</v>
-      </c>
-      <c r="S105" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="T105" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U105" t="n">
-        <v>57.2</v>
-      </c>
+        <v>1337.3</v>
+      </c>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -6422,54 +6408,54 @@
         <v>2021</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L106" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M106" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N106" t="n">
         <v>1</v>
       </c>
       <c r="O106" t="n">
-        <v>22.44</v>
+        <v>21.83</v>
       </c>
       <c r="P106" t="n">
-        <v>42.45</v>
+        <v>43.08</v>
       </c>
       <c r="Q106" t="n">
-        <v>64.89</v>
+        <v>64.91</v>
       </c>
       <c r="R106" t="n">
-        <v>2185</v>
+        <v>2247.4</v>
       </c>
       <c r="S106" t="n">
-        <v>12.9</v>
+        <v>11.7</v>
       </c>
       <c r="T106" t="n">
         <v>1.5</v>
       </c>
       <c r="U106" t="n">
-        <v>57.4</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="107">
@@ -6483,44 +6469,54 @@
         <v>2021</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E107" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H107"/>
       <c r="I107"/>
-      <c r="J107"/>
+      <c r="J107" t="n">
+        <v>16</v>
+      </c>
       <c r="K107" t="s">
-        <v>49</v>
-      </c>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
+        <v>50</v>
+      </c>
+      <c r="L107" t="s">
+        <v>25</v>
+      </c>
+      <c r="M107" t="n">
+        <v>29</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
       <c r="O107" t="n">
-        <v>22.9</v>
+        <v>21.32</v>
       </c>
       <c r="P107" t="n">
-        <v>41.51</v>
+        <v>43.95</v>
       </c>
       <c r="Q107" t="n">
-        <v>64.41</v>
+        <v>65.27</v>
       </c>
       <c r="R107" t="n">
-        <v>2060.3</v>
+        <v>1736</v>
       </c>
       <c r="S107" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="T107"/>
+        <v>12.2</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U107" t="n">
-        <v>57.8</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="108">
@@ -6534,41 +6530,45 @@
         <v>2021</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
       <c r="O108" t="n">
-        <v>21.92</v>
+        <v>21.47</v>
       </c>
       <c r="P108" t="n">
-        <v>42.37</v>
+        <v>44.68</v>
       </c>
       <c r="Q108" t="n">
-        <v>64.29</v>
+        <v>66.15</v>
       </c>
       <c r="R108" t="n">
-        <v>1337.3</v>
-      </c>
-      <c r="S108"/>
+        <v>1903.6</v>
+      </c>
+      <c r="S108" t="n">
+        <v>12.5</v>
+      </c>
       <c r="T108"/>
-      <c r="U108"/>
+      <c r="U108" t="n">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -6587,49 +6587,35 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
-      <c r="J109" t="n">
-        <v>15</v>
-      </c>
+      <c r="J109"/>
       <c r="K109" t="s">
         <v>50</v>
       </c>
-      <c r="L109" t="s">
-        <v>25</v>
-      </c>
-      <c r="M109" t="n">
-        <v>30</v>
-      </c>
-      <c r="N109" t="n">
-        <v>1</v>
-      </c>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
       <c r="O109" t="n">
-        <v>21.83</v>
+        <v>21.59</v>
       </c>
       <c r="P109" t="n">
-        <v>43.08</v>
+        <v>44.33</v>
       </c>
       <c r="Q109" t="n">
-        <v>64.91</v>
+        <v>65.92</v>
       </c>
       <c r="R109" t="n">
-        <v>2247.4</v>
-      </c>
-      <c r="S109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="T109" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U109" t="n">
-        <v>57.9</v>
-      </c>
+        <v>1996.3</v>
+      </c>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -6642,21 +6628,21 @@
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K110" t="s">
         <v>50</v>
@@ -6665,31 +6651,31 @@
         <v>25</v>
       </c>
       <c r="M110" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N110" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O110" t="n">
-        <v>21.32</v>
+        <v>21.28</v>
       </c>
       <c r="P110" t="n">
-        <v>43.95</v>
+        <v>42.25</v>
       </c>
       <c r="Q110" t="n">
-        <v>65.27</v>
+        <v>63.53</v>
       </c>
       <c r="R110" t="n">
-        <v>1736</v>
+        <v>1920.1</v>
       </c>
       <c r="S110" t="n">
-        <v>12.2</v>
+        <v>9.8</v>
       </c>
       <c r="T110" t="n">
         <v>1.5</v>
       </c>
       <c r="U110" t="n">
-        <v>58.3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111">
@@ -6703,44 +6689,54 @@
         <v>2021</v>
       </c>
       <c r="D111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
-      <c r="J111"/>
+      <c r="J111" t="n">
+        <v>17</v>
+      </c>
       <c r="K111" t="s">
         <v>50</v>
       </c>
-      <c r="L111"/>
-      <c r="M111"/>
-      <c r="N111"/>
+      <c r="L111" t="s">
+        <v>25</v>
+      </c>
+      <c r="M111" t="n">
+        <v>33</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O111" t="n">
-        <v>21.47</v>
+        <v>21.48</v>
       </c>
       <c r="P111" t="n">
-        <v>44.68</v>
+        <v>41.84</v>
       </c>
       <c r="Q111" t="n">
-        <v>66.15</v>
+        <v>63.32</v>
       </c>
       <c r="R111" t="n">
-        <v>1903.6</v>
+        <v>1673.4</v>
       </c>
       <c r="S111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="T111"/>
+        <v>12.1</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U111" t="n">
-        <v>58.2</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="112">
@@ -6754,16 +6750,16 @@
         <v>2021</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H112"/>
       <c r="I112"/>
@@ -6775,20 +6771,24 @@
       <c r="M112"/>
       <c r="N112"/>
       <c r="O112" t="n">
-        <v>21.59</v>
+        <v>21.2</v>
       </c>
       <c r="P112" t="n">
-        <v>44.33</v>
+        <v>42.18</v>
       </c>
       <c r="Q112" t="n">
-        <v>65.92</v>
+        <v>63.38</v>
       </c>
       <c r="R112" t="n">
-        <v>1996.3</v>
-      </c>
-      <c r="S112"/>
+        <v>2211.4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>12.1</v>
+      </c>
       <c r="T112"/>
-      <c r="U112"/>
+      <c r="U112" t="n">
+        <v>56.9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -6807,49 +6807,35 @@
         <v>8</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="H113"/>
       <c r="I113"/>
-      <c r="J113" t="n">
-        <v>15</v>
-      </c>
+      <c r="J113"/>
       <c r="K113" t="s">
         <v>50</v>
       </c>
-      <c r="L113" t="s">
-        <v>25</v>
-      </c>
-      <c r="M113" t="n">
-        <v>35</v>
-      </c>
-      <c r="N113" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
       <c r="O113" t="n">
-        <v>21.28</v>
+        <v>20.63</v>
       </c>
       <c r="P113" t="n">
-        <v>42.25</v>
+        <v>44.31</v>
       </c>
       <c r="Q113" t="n">
-        <v>63.53</v>
+        <v>64.94</v>
       </c>
       <c r="R113" t="n">
-        <v>1920.1</v>
-      </c>
-      <c r="S113" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="T113" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U113" t="n">
-        <v>57</v>
-      </c>
+        <v>1548.7</v>
+      </c>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -6862,21 +6848,21 @@
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E114" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K114" t="s">
         <v>50</v>
@@ -6885,31 +6871,31 @@
         <v>25</v>
       </c>
       <c r="M114" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N114" t="n">
         <v>2.5</v>
       </c>
       <c r="O114" t="n">
-        <v>21.48</v>
+        <v>23.46</v>
       </c>
       <c r="P114" t="n">
-        <v>41.84</v>
+        <v>41.82</v>
       </c>
       <c r="Q114" t="n">
-        <v>63.32</v>
+        <v>65.28</v>
       </c>
       <c r="R114" t="n">
-        <v>1673.4</v>
+        <v>1913.2</v>
       </c>
       <c r="S114" t="n">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
       <c r="T114" t="n">
         <v>1.5</v>
       </c>
       <c r="U114" t="n">
-        <v>56.4</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="115">
@@ -6923,44 +6909,54 @@
         <v>2021</v>
       </c>
       <c r="D115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E115" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
-      <c r="J115"/>
+      <c r="J115" t="n">
+        <v>16</v>
+      </c>
       <c r="K115" t="s">
         <v>50</v>
       </c>
-      <c r="L115"/>
-      <c r="M115"/>
-      <c r="N115"/>
+      <c r="L115" t="s">
+        <v>25</v>
+      </c>
+      <c r="M115" t="n">
+        <v>36</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
       <c r="O115" t="n">
-        <v>21.2</v>
+        <v>23.3</v>
       </c>
       <c r="P115" t="n">
-        <v>42.18</v>
+        <v>43.05</v>
       </c>
       <c r="Q115" t="n">
-        <v>63.38</v>
+        <v>66.35</v>
       </c>
       <c r="R115" t="n">
-        <v>2211.4</v>
+        <v>2113.6</v>
       </c>
       <c r="S115" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="T115"/>
+        <v>15.3</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U115" t="n">
-        <v>56.9</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="116">
@@ -6974,16 +6970,16 @@
         <v>2021</v>
       </c>
       <c r="D116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
@@ -6995,20 +6991,24 @@
       <c r="M116"/>
       <c r="N116"/>
       <c r="O116" t="n">
-        <v>20.63</v>
+        <v>24.22</v>
       </c>
       <c r="P116" t="n">
-        <v>44.31</v>
+        <v>42.03</v>
       </c>
       <c r="Q116" t="n">
-        <v>64.94</v>
+        <v>66.25</v>
       </c>
       <c r="R116" t="n">
-        <v>1548.7</v>
-      </c>
-      <c r="S116"/>
+        <v>1917.4</v>
+      </c>
+      <c r="S116" t="n">
+        <v>13.4</v>
+      </c>
       <c r="T116"/>
-      <c r="U116"/>
+      <c r="U116" t="n">
+        <v>56.3</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -7027,49 +7027,35 @@
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G117" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
-      <c r="J117" t="n">
-        <v>15</v>
-      </c>
+      <c r="J117"/>
       <c r="K117" t="s">
         <v>50</v>
       </c>
-      <c r="L117" t="s">
-        <v>25</v>
-      </c>
-      <c r="M117" t="n">
-        <v>35</v>
-      </c>
-      <c r="N117" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
       <c r="O117" t="n">
-        <v>23.46</v>
+        <v>23.37</v>
       </c>
       <c r="P117" t="n">
-        <v>41.82</v>
+        <v>43.44</v>
       </c>
       <c r="Q117" t="n">
-        <v>65.28</v>
+        <v>66.81</v>
       </c>
       <c r="R117" t="n">
-        <v>1913.2</v>
-      </c>
-      <c r="S117" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T117" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U117" t="n">
-        <v>54.2</v>
-      </c>
+        <v>1401.1</v>
+      </c>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -7082,24 +7068,24 @@
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L118" t="s">
         <v>25</v>
@@ -7108,28 +7094,28 @@
         <v>36</v>
       </c>
       <c r="N118" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="O118" t="n">
-        <v>23.3</v>
+        <v>23.31</v>
       </c>
       <c r="P118" t="n">
-        <v>43.05</v>
+        <v>41.51</v>
       </c>
       <c r="Q118" t="n">
-        <v>66.35</v>
+        <v>64.82</v>
       </c>
       <c r="R118" t="n">
-        <v>2113.6</v>
+        <v>2332.9</v>
       </c>
       <c r="S118" t="n">
-        <v>15.3</v>
+        <v>13.9</v>
       </c>
       <c r="T118" t="n">
         <v>1.5</v>
       </c>
       <c r="U118" t="n">
-        <v>55.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119">
@@ -7143,44 +7129,54 @@
         <v>2021</v>
       </c>
       <c r="D119" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2</v>
+      </c>
+      <c r="G119" t="n">
         <v>35</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3</v>
-      </c>
-      <c r="G119" t="n">
-        <v>42</v>
       </c>
       <c r="H119"/>
       <c r="I119"/>
-      <c r="J119"/>
+      <c r="J119" t="n">
+        <v>25</v>
+      </c>
       <c r="K119" t="s">
-        <v>50</v>
-      </c>
-      <c r="L119"/>
-      <c r="M119"/>
-      <c r="N119"/>
+        <v>49</v>
+      </c>
+      <c r="L119" t="s">
+        <v>25</v>
+      </c>
+      <c r="M119" t="n">
+        <v>35</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
       <c r="O119" t="n">
-        <v>24.22</v>
+        <v>22.38</v>
       </c>
       <c r="P119" t="n">
-        <v>42.03</v>
+        <v>42.25</v>
       </c>
       <c r="Q119" t="n">
-        <v>66.25</v>
+        <v>64.63</v>
       </c>
       <c r="R119" t="n">
-        <v>1917.4</v>
+        <v>1689.6</v>
       </c>
       <c r="S119" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T119"/>
+        <v>13.3</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U119" t="n">
-        <v>56.3</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="120">
@@ -7194,41 +7190,45 @@
         <v>2021</v>
       </c>
       <c r="D120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L120"/>
       <c r="M120"/>
       <c r="N120"/>
       <c r="O120" t="n">
-        <v>23.37</v>
+        <v>23.44</v>
       </c>
       <c r="P120" t="n">
-        <v>43.44</v>
+        <v>41.32</v>
       </c>
       <c r="Q120" t="n">
-        <v>66.81</v>
+        <v>64.76</v>
       </c>
       <c r="R120" t="n">
-        <v>1401.1</v>
-      </c>
-      <c r="S120"/>
+        <v>1942.6</v>
+      </c>
+      <c r="S120" t="n">
+        <v>13.2</v>
+      </c>
       <c r="T120"/>
-      <c r="U120"/>
+      <c r="U120" t="n">
+        <v>57.8</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -7247,49 +7247,35 @@
         <v>10</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="H121"/>
       <c r="I121"/>
-      <c r="J121" t="n">
-        <v>23</v>
-      </c>
+      <c r="J121"/>
       <c r="K121" t="s">
         <v>49</v>
       </c>
-      <c r="L121" t="s">
-        <v>25</v>
-      </c>
-      <c r="M121" t="n">
-        <v>36</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.4</v>
-      </c>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
       <c r="O121" t="n">
-        <v>23.31</v>
+        <v>23.45</v>
       </c>
       <c r="P121" t="n">
-        <v>41.51</v>
+        <v>41.26</v>
       </c>
       <c r="Q121" t="n">
-        <v>64.82</v>
+        <v>64.71</v>
       </c>
       <c r="R121" t="n">
-        <v>2332.9</v>
-      </c>
-      <c r="S121" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="T121" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U121" t="n">
-        <v>57</v>
-      </c>
+        <v>1923.9</v>
+      </c>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -7302,54 +7288,54 @@
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L122" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M122" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N122" t="n">
         <v>1</v>
       </c>
       <c r="O122" t="n">
-        <v>22.38</v>
+        <v>23.24</v>
       </c>
       <c r="P122" t="n">
-        <v>42.25</v>
+        <v>41.23</v>
       </c>
       <c r="Q122" t="n">
-        <v>64.63</v>
+        <v>64.47</v>
       </c>
       <c r="R122" t="n">
-        <v>1689.6</v>
+        <v>2060.1</v>
       </c>
       <c r="S122" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="T122" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="U122" t="n">
-        <v>58.1</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="123">
@@ -7363,44 +7349,54 @@
         <v>2021</v>
       </c>
       <c r="D123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
-      <c r="J123"/>
+      <c r="J123" t="n">
+        <v>15</v>
+      </c>
       <c r="K123" t="s">
-        <v>49</v>
-      </c>
-      <c r="L123"/>
-      <c r="M123"/>
-      <c r="N123"/>
+        <v>50</v>
+      </c>
+      <c r="L123" t="s">
+        <v>28</v>
+      </c>
+      <c r="M123" t="n">
+        <v>32</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
       <c r="O123" t="n">
-        <v>23.44</v>
+        <v>23.59</v>
       </c>
       <c r="P123" t="n">
-        <v>41.32</v>
+        <v>40.92</v>
       </c>
       <c r="Q123" t="n">
-        <v>64.76</v>
+        <v>64.51</v>
       </c>
       <c r="R123" t="n">
-        <v>1942.6</v>
+        <v>1852.5</v>
       </c>
       <c r="S123" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="T123"/>
+        <v>14.2</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1</v>
+      </c>
       <c r="U123" t="n">
-        <v>57.8</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="124">
@@ -7414,41 +7410,45 @@
         <v>2021</v>
       </c>
       <c r="D124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G124" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H124"/>
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L124"/>
       <c r="M124"/>
       <c r="N124"/>
       <c r="O124" t="n">
-        <v>23.45</v>
+        <v>23.28</v>
       </c>
       <c r="P124" t="n">
-        <v>41.26</v>
+        <v>42.23</v>
       </c>
       <c r="Q124" t="n">
-        <v>64.71</v>
+        <v>65.51</v>
       </c>
       <c r="R124" t="n">
-        <v>1923.9</v>
-      </c>
-      <c r="S124"/>
+        <v>2259.8</v>
+      </c>
+      <c r="S124" t="n">
+        <v>12.9</v>
+      </c>
       <c r="T124"/>
-      <c r="U124"/>
+      <c r="U124" t="n">
+        <v>57.6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -7467,49 +7467,35 @@
         <v>11</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="H125"/>
       <c r="I125"/>
-      <c r="J125" t="n">
-        <v>16</v>
-      </c>
+      <c r="J125"/>
       <c r="K125" t="s">
         <v>50</v>
       </c>
-      <c r="L125" t="s">
-        <v>28</v>
-      </c>
-      <c r="M125" t="n">
-        <v>31</v>
-      </c>
-      <c r="N125" t="n">
-        <v>1</v>
-      </c>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
       <c r="O125" t="n">
-        <v>23.24</v>
+        <v>22.73</v>
       </c>
       <c r="P125" t="n">
-        <v>41.23</v>
+        <v>42.8</v>
       </c>
       <c r="Q125" t="n">
-        <v>64.47</v>
+        <v>65.53</v>
       </c>
       <c r="R125" t="n">
-        <v>2060.1</v>
-      </c>
-      <c r="S125" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="T125" t="n">
-        <v>1</v>
-      </c>
-      <c r="U125" t="n">
-        <v>57.6</v>
-      </c>
+        <v>1520.6</v>
+      </c>
+      <c r="S125"/>
+      <c r="T125"/>
+      <c r="U125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -7522,54 +7508,54 @@
         <v>2021</v>
       </c>
       <c r="D126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L126" t="s">
         <v>28</v>
       </c>
       <c r="M126" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N126" t="n">
         <v>1</v>
       </c>
       <c r="O126" t="n">
-        <v>23.59</v>
+        <v>23.03</v>
       </c>
       <c r="P126" t="n">
-        <v>40.92</v>
+        <v>41.28</v>
       </c>
       <c r="Q126" t="n">
-        <v>64.51</v>
+        <v>64.31</v>
       </c>
       <c r="R126" t="n">
-        <v>1852.5</v>
+        <v>1942.6</v>
       </c>
       <c r="S126" t="n">
-        <v>14.2</v>
+        <v>12.6</v>
       </c>
       <c r="T126" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U126" t="n">
-        <v>57.5</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="127">
@@ -7583,44 +7569,54 @@
         <v>2021</v>
       </c>
       <c r="D127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E127" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H127"/>
       <c r="I127"/>
-      <c r="J127"/>
+      <c r="J127" t="n">
+        <v>16</v>
+      </c>
       <c r="K127" t="s">
-        <v>50</v>
-      </c>
-      <c r="L127"/>
-      <c r="M127"/>
-      <c r="N127"/>
+        <v>49</v>
+      </c>
+      <c r="L127" t="s">
+        <v>28</v>
+      </c>
+      <c r="M127" t="n">
+        <v>32</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
       <c r="O127" t="n">
-        <v>23.28</v>
+        <v>23.51</v>
       </c>
       <c r="P127" t="n">
-        <v>42.23</v>
+        <v>40.77</v>
       </c>
       <c r="Q127" t="n">
-        <v>65.51</v>
+        <v>64.28</v>
       </c>
       <c r="R127" t="n">
-        <v>2259.8</v>
+        <v>2084.7</v>
       </c>
       <c r="S127" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="T127"/>
+        <v>12.5</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U127" t="n">
-        <v>57.6</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="128">
@@ -7634,41 +7630,45 @@
         <v>2021</v>
       </c>
       <c r="D128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H128"/>
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L128"/>
       <c r="M128"/>
       <c r="N128"/>
       <c r="O128" t="n">
-        <v>22.73</v>
+        <v>23.1</v>
       </c>
       <c r="P128" t="n">
-        <v>42.8</v>
+        <v>41.32</v>
       </c>
       <c r="Q128" t="n">
-        <v>65.53</v>
+        <v>64.42</v>
       </c>
       <c r="R128" t="n">
-        <v>1520.6</v>
-      </c>
-      <c r="S128"/>
+        <v>1999.8</v>
+      </c>
+      <c r="S128" t="n">
+        <v>12.8</v>
+      </c>
       <c r="T128"/>
-      <c r="U128"/>
+      <c r="U128" t="n">
+        <v>57.5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -7687,49 +7687,35 @@
         <v>12</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G129" t="n">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="H129"/>
       <c r="I129"/>
-      <c r="J129" t="n">
-        <v>16</v>
-      </c>
+      <c r="J129"/>
       <c r="K129" t="s">
         <v>49</v>
       </c>
-      <c r="L129" t="s">
-        <v>28</v>
-      </c>
-      <c r="M129" t="n">
-        <v>29</v>
-      </c>
-      <c r="N129" t="n">
-        <v>1</v>
-      </c>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
       <c r="O129" t="n">
-        <v>23.03</v>
+        <v>23.82</v>
       </c>
       <c r="P129" t="n">
-        <v>41.28</v>
+        <v>40.98</v>
       </c>
       <c r="Q129" t="n">
-        <v>64.31</v>
+        <v>64.8</v>
       </c>
       <c r="R129" t="n">
-        <v>1942.6</v>
-      </c>
-      <c r="S129" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="T129" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U129" t="n">
-        <v>55.5</v>
-      </c>
+        <v>1750.3</v>
+      </c>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -7742,21 +7728,21 @@
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H130"/>
       <c r="I130"/>
       <c r="J130" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K130" t="s">
         <v>49</v>
@@ -7765,25 +7751,25 @@
         <v>28</v>
       </c>
       <c r="M130" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N130" t="n">
         <v>1</v>
       </c>
       <c r="O130" t="n">
-        <v>23.51</v>
+        <v>21.95</v>
       </c>
       <c r="P130" t="n">
-        <v>40.77</v>
+        <v>44.45</v>
       </c>
       <c r="Q130" t="n">
-        <v>64.28</v>
+        <v>66.4</v>
       </c>
       <c r="R130" t="n">
-        <v>2084.7</v>
+        <v>2357.8</v>
       </c>
       <c r="S130" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="T130" t="n">
         <v>1.5</v>
@@ -7803,44 +7789,54 @@
         <v>2021</v>
       </c>
       <c r="D131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H131"/>
       <c r="I131"/>
-      <c r="J131"/>
+      <c r="J131" t="n">
+        <v>18</v>
+      </c>
       <c r="K131" t="s">
         <v>49</v>
       </c>
-      <c r="L131"/>
-      <c r="M131"/>
-      <c r="N131"/>
+      <c r="L131" t="s">
+        <v>28</v>
+      </c>
+      <c r="M131" t="n">
+        <v>37</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
       <c r="O131" t="n">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="P131" t="n">
-        <v>41.32</v>
+        <v>43.7</v>
       </c>
       <c r="Q131" t="n">
-        <v>64.42</v>
+        <v>66.1</v>
       </c>
       <c r="R131" t="n">
-        <v>1999.8</v>
+        <v>2055.4</v>
       </c>
       <c r="S131" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T131"/>
+        <v>18.2</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U131" t="n">
-        <v>57.5</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="132">
@@ -7854,16 +7850,16 @@
         <v>2021</v>
       </c>
       <c r="D132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G132" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H132"/>
       <c r="I132"/>
@@ -7875,20 +7871,24 @@
       <c r="M132"/>
       <c r="N132"/>
       <c r="O132" t="n">
-        <v>23.82</v>
+        <v>21.62</v>
       </c>
       <c r="P132" t="n">
-        <v>40.98</v>
+        <v>44.17</v>
       </c>
       <c r="Q132" t="n">
-        <v>64.8</v>
+        <v>65.79</v>
       </c>
       <c r="R132" t="n">
-        <v>1750.3</v>
-      </c>
-      <c r="S132"/>
+        <v>1763.7</v>
+      </c>
+      <c r="S132" t="n">
+        <v>16.6</v>
+      </c>
       <c r="T132"/>
-      <c r="U132"/>
+      <c r="U132" t="n">
+        <v>57.6</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -7907,49 +7907,35 @@
         <v>13</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G133" t="n">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="H133"/>
       <c r="I133"/>
-      <c r="J133" t="n">
-        <v>18</v>
-      </c>
+      <c r="J133"/>
       <c r="K133" t="s">
         <v>49</v>
       </c>
-      <c r="L133" t="s">
-        <v>28</v>
-      </c>
-      <c r="M133" t="n">
-        <v>38</v>
-      </c>
-      <c r="N133" t="n">
-        <v>1</v>
-      </c>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
       <c r="O133" t="n">
-        <v>21.95</v>
+        <v>21.73</v>
       </c>
       <c r="P133" t="n">
-        <v>44.45</v>
+        <v>45.25</v>
       </c>
       <c r="Q133" t="n">
-        <v>66.4</v>
+        <v>66.98</v>
       </c>
       <c r="R133" t="n">
-        <v>2357.8</v>
-      </c>
-      <c r="S133" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="T133" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U133" t="n">
-        <v>57.4</v>
-      </c>
+        <v>1480.4</v>
+      </c>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -7962,16 +7948,16 @@
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E134" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H134"/>
       <c r="I134"/>
@@ -7982,34 +7968,34 @@
         <v>49</v>
       </c>
       <c r="L134" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M134" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N134" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O134" t="n">
-        <v>22.4</v>
+        <v>21.45</v>
       </c>
       <c r="P134" t="n">
-        <v>43.7</v>
+        <v>42.85</v>
       </c>
       <c r="Q134" t="n">
-        <v>66.1</v>
+        <v>64.3</v>
       </c>
       <c r="R134" t="n">
-        <v>2055.4</v>
+        <v>2086.9</v>
       </c>
       <c r="S134" t="n">
-        <v>18.2</v>
+        <v>11.5</v>
       </c>
       <c r="T134" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="U134" t="n">
-        <v>55.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135">
@@ -8023,44 +8009,54 @@
         <v>2021</v>
       </c>
       <c r="D135" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E135" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H135"/>
       <c r="I135"/>
-      <c r="J135"/>
+      <c r="J135" t="n">
+        <v>18</v>
+      </c>
       <c r="K135" t="s">
         <v>49</v>
       </c>
-      <c r="L135"/>
-      <c r="M135"/>
-      <c r="N135"/>
+      <c r="L135" t="s">
+        <v>25</v>
+      </c>
+      <c r="M135" t="n">
+        <v>33</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2</v>
+      </c>
       <c r="O135" t="n">
-        <v>21.62</v>
+        <v>21.91</v>
       </c>
       <c r="P135" t="n">
-        <v>44.17</v>
+        <v>43.05</v>
       </c>
       <c r="Q135" t="n">
-        <v>65.79</v>
+        <v>64.96</v>
       </c>
       <c r="R135" t="n">
-        <v>1763.7</v>
+        <v>1975.7</v>
       </c>
       <c r="S135" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="T135"/>
+        <v>11.4</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1</v>
+      </c>
       <c r="U135" t="n">
-        <v>57.6</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="136">
@@ -8074,16 +8070,16 @@
         <v>2021</v>
       </c>
       <c r="D136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E136" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G136" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H136"/>
       <c r="I136"/>
@@ -8095,20 +8091,24 @@
       <c r="M136"/>
       <c r="N136"/>
       <c r="O136" t="n">
-        <v>21.73</v>
+        <v>21.86</v>
       </c>
       <c r="P136" t="n">
-        <v>45.25</v>
+        <v>42.42</v>
       </c>
       <c r="Q136" t="n">
-        <v>66.98</v>
+        <v>64.28</v>
       </c>
       <c r="R136" t="n">
-        <v>1480.4</v>
-      </c>
-      <c r="S136"/>
+        <v>1727.5</v>
+      </c>
+      <c r="S136" t="n">
+        <v>10.1</v>
+      </c>
       <c r="T136"/>
-      <c r="U136"/>
+      <c r="U136" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -8127,49 +8127,35 @@
         <v>14</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="H137"/>
       <c r="I137"/>
-      <c r="J137" t="n">
-        <v>18</v>
-      </c>
+      <c r="J137"/>
       <c r="K137" t="s">
         <v>49</v>
       </c>
-      <c r="L137" t="s">
-        <v>25</v>
-      </c>
-      <c r="M137" t="n">
-        <v>32</v>
-      </c>
-      <c r="N137" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
       <c r="O137" t="n">
-        <v>21.45</v>
+        <v>22</v>
       </c>
       <c r="P137" t="n">
-        <v>42.85</v>
+        <v>42.91</v>
       </c>
       <c r="Q137" t="n">
-        <v>64.3</v>
+        <v>64.91</v>
       </c>
       <c r="R137" t="n">
-        <v>2086.9</v>
-      </c>
-      <c r="S137" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="T137" t="n">
-        <v>1</v>
-      </c>
-      <c r="U137" t="n">
-        <v>58</v>
-      </c>
+        <v>1944.8</v>
+      </c>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
@@ -8182,21 +8168,21 @@
         <v>2021</v>
       </c>
       <c r="D138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E138" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H138"/>
       <c r="I138"/>
       <c r="J138" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K138" t="s">
         <v>49</v>
@@ -8205,31 +8191,31 @@
         <v>25</v>
       </c>
       <c r="M138" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N138" t="n">
         <v>2</v>
       </c>
       <c r="O138" t="n">
-        <v>21.91</v>
+        <v>21.28</v>
       </c>
       <c r="P138" t="n">
-        <v>43.05</v>
+        <v>43.32</v>
       </c>
       <c r="Q138" t="n">
-        <v>64.96</v>
+        <v>64.6</v>
       </c>
       <c r="R138" t="n">
-        <v>1975.7</v>
+        <v>2081.6</v>
       </c>
       <c r="S138" t="n">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="T138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U138" t="n">
-        <v>57.3</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="139">
@@ -8243,44 +8229,54 @@
         <v>2021</v>
       </c>
       <c r="D139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E139" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G139" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="H139"/>
       <c r="I139"/>
-      <c r="J139"/>
+      <c r="J139" t="n">
+        <v>21</v>
+      </c>
       <c r="K139" t="s">
         <v>49</v>
       </c>
-      <c r="L139"/>
-      <c r="M139"/>
-      <c r="N139"/>
+      <c r="L139" t="s">
+        <v>25</v>
+      </c>
+      <c r="M139" t="n">
+        <v>42</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O139" t="n">
-        <v>21.86</v>
+        <v>21.3</v>
       </c>
       <c r="P139" t="n">
-        <v>42.42</v>
+        <v>44.17</v>
       </c>
       <c r="Q139" t="n">
-        <v>64.28</v>
+        <v>65.47</v>
       </c>
       <c r="R139" t="n">
-        <v>1727.5</v>
+        <v>1691</v>
       </c>
       <c r="S139" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="T139"/>
+        <v>11.3</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U139" t="n">
-        <v>55.6</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="140">
@@ -8294,16 +8290,16 @@
         <v>2021</v>
       </c>
       <c r="D140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E140" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G140" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="H140"/>
       <c r="I140"/>
@@ -8315,20 +8311,24 @@
       <c r="M140"/>
       <c r="N140"/>
       <c r="O140" t="n">
-        <v>22</v>
+        <v>21.17</v>
       </c>
       <c r="P140" t="n">
-        <v>42.91</v>
+        <v>43.26</v>
       </c>
       <c r="Q140" t="n">
-        <v>64.91</v>
+        <v>64.43</v>
       </c>
       <c r="R140" t="n">
-        <v>1944.8</v>
-      </c>
-      <c r="S140"/>
+        <v>2220.7</v>
+      </c>
+      <c r="S140" t="n">
+        <v>11.2</v>
+      </c>
       <c r="T140"/>
-      <c r="U140"/>
+      <c r="U140" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -8347,49 +8347,35 @@
         <v>15</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G141" t="n">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H141"/>
       <c r="I141"/>
-      <c r="J141" t="n">
-        <v>21</v>
-      </c>
+      <c r="J141"/>
       <c r="K141" t="s">
         <v>49</v>
       </c>
-      <c r="L141" t="s">
-        <v>25</v>
-      </c>
-      <c r="M141" t="n">
-        <v>40</v>
-      </c>
-      <c r="N141" t="n">
-        <v>2</v>
-      </c>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
       <c r="O141" t="n">
-        <v>21.28</v>
+        <v>20.95</v>
       </c>
       <c r="P141" t="n">
-        <v>43.32</v>
+        <v>44.1</v>
       </c>
       <c r="Q141" t="n">
-        <v>64.6</v>
+        <v>65.05</v>
       </c>
       <c r="R141" t="n">
-        <v>2081.6</v>
-      </c>
-      <c r="S141" t="n">
-        <v>12</v>
-      </c>
-      <c r="T141" t="n">
-        <v>2</v>
-      </c>
-      <c r="U141" t="n">
-        <v>56.1</v>
-      </c>
+        <v>1706.9</v>
+      </c>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -8402,24 +8388,24 @@
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E142" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H142"/>
       <c r="I142"/>
       <c r="J142" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L142" t="s">
         <v>25</v>
@@ -8428,28 +8414,28 @@
         <v>42</v>
       </c>
       <c r="N142" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O142" t="n">
-        <v>21.3</v>
+        <v>23.25</v>
       </c>
       <c r="P142" t="n">
-        <v>44.17</v>
+        <v>40.98</v>
       </c>
       <c r="Q142" t="n">
-        <v>65.47</v>
+        <v>64.23</v>
       </c>
       <c r="R142" t="n">
-        <v>1691</v>
+        <v>1985</v>
       </c>
       <c r="S142" t="n">
-        <v>11.3</v>
+        <v>13.8</v>
       </c>
       <c r="T142" t="n">
         <v>1.5</v>
       </c>
       <c r="U142" t="n">
-        <v>57.3</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="143">
@@ -8463,44 +8449,54 @@
         <v>2021</v>
       </c>
       <c r="D143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E143" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H143"/>
       <c r="I143"/>
-      <c r="J143"/>
+      <c r="J143" t="n">
+        <v>21</v>
+      </c>
       <c r="K143" t="s">
-        <v>49</v>
-      </c>
-      <c r="L143"/>
-      <c r="M143"/>
-      <c r="N143"/>
+        <v>50</v>
+      </c>
+      <c r="L143" t="s">
+        <v>25</v>
+      </c>
+      <c r="M143" t="n">
+        <v>43</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
       <c r="O143" t="n">
-        <v>21.17</v>
+        <v>22.64</v>
       </c>
       <c r="P143" t="n">
-        <v>43.26</v>
+        <v>40.46</v>
       </c>
       <c r="Q143" t="n">
-        <v>64.43</v>
+        <v>63.1</v>
       </c>
       <c r="R143" t="n">
-        <v>2220.7</v>
+        <v>2009.1</v>
       </c>
       <c r="S143" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="T143"/>
+        <v>13.2</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U143" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144">
@@ -8514,41 +8510,45 @@
         <v>2021</v>
       </c>
       <c r="D144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E144" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G144" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H144"/>
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L144"/>
       <c r="M144"/>
       <c r="N144"/>
       <c r="O144" t="n">
-        <v>20.95</v>
+        <v>23.04</v>
       </c>
       <c r="P144" t="n">
-        <v>44.1</v>
+        <v>40.5</v>
       </c>
       <c r="Q144" t="n">
-        <v>65.05</v>
+        <v>63.54</v>
       </c>
       <c r="R144" t="n">
-        <v>1706.9</v>
-      </c>
-      <c r="S144"/>
+        <v>1915.2</v>
+      </c>
+      <c r="S144" t="n">
+        <v>12.5</v>
+      </c>
       <c r="T144"/>
-      <c r="U144"/>
+      <c r="U144" t="n">
+        <v>56.9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -8567,49 +8567,35 @@
         <v>16</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G145" t="n">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="H145"/>
       <c r="I145"/>
-      <c r="J145" t="n">
-        <v>23</v>
-      </c>
+      <c r="J145"/>
       <c r="K145" t="s">
         <v>50</v>
       </c>
-      <c r="L145" t="s">
-        <v>25</v>
-      </c>
-      <c r="M145" t="n">
-        <v>42</v>
-      </c>
-      <c r="N145" t="n">
-        <v>2</v>
-      </c>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
       <c r="O145" t="n">
-        <v>23.25</v>
+        <v>22.85</v>
       </c>
       <c r="P145" t="n">
-        <v>40.98</v>
+        <v>41.31</v>
       </c>
       <c r="Q145" t="n">
-        <v>64.23</v>
+        <v>64.16</v>
       </c>
       <c r="R145" t="n">
-        <v>1985</v>
-      </c>
-      <c r="S145" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="T145" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U145" t="n">
-        <v>58.6</v>
-      </c>
+        <v>1749.6</v>
+      </c>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
@@ -8622,54 +8608,54 @@
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E146" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H146"/>
       <c r="I146"/>
       <c r="J146" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L146" t="s">
         <v>25</v>
       </c>
       <c r="M146" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O146" t="n">
-        <v>22.64</v>
+        <v>22.12</v>
       </c>
       <c r="P146" t="n">
-        <v>40.46</v>
+        <v>41</v>
       </c>
       <c r="Q146" t="n">
-        <v>63.1</v>
+        <v>63.12</v>
       </c>
       <c r="R146" t="n">
-        <v>2009.1</v>
+        <v>1748.5</v>
       </c>
       <c r="S146" t="n">
-        <v>13.2</v>
+        <v>10.6</v>
       </c>
       <c r="T146" t="n">
         <v>1.5</v>
       </c>
       <c r="U146" t="n">
-        <v>59</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="147">
@@ -8683,44 +8669,54 @@
         <v>2021</v>
       </c>
       <c r="D147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E147" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="H147"/>
       <c r="I147"/>
-      <c r="J147"/>
+      <c r="J147" t="n">
+        <v>22</v>
+      </c>
       <c r="K147" t="s">
-        <v>50</v>
-      </c>
-      <c r="L147"/>
-      <c r="M147"/>
-      <c r="N147"/>
+        <v>49</v>
+      </c>
+      <c r="L147" t="s">
+        <v>25</v>
+      </c>
+      <c r="M147" t="n">
+        <v>40</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O147" t="n">
-        <v>23.04</v>
+        <v>21.25</v>
       </c>
       <c r="P147" t="n">
-        <v>40.5</v>
+        <v>42.73</v>
       </c>
       <c r="Q147" t="n">
-        <v>63.54</v>
+        <v>63.98</v>
       </c>
       <c r="R147" t="n">
-        <v>1915.2</v>
+        <v>1344.6</v>
       </c>
       <c r="S147" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="T147"/>
+        <v>10.9</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U147" t="n">
-        <v>56.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148">
@@ -8734,41 +8730,45 @@
         <v>2021</v>
       </c>
       <c r="D148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E148" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G148" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H148"/>
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L148"/>
       <c r="M148"/>
       <c r="N148"/>
       <c r="O148" t="n">
-        <v>22.85</v>
+        <v>21.77</v>
       </c>
       <c r="P148" t="n">
-        <v>41.31</v>
+        <v>42.17</v>
       </c>
       <c r="Q148" t="n">
-        <v>64.16</v>
+        <v>63.94</v>
       </c>
       <c r="R148" t="n">
-        <v>1749.6</v>
-      </c>
-      <c r="S148"/>
+        <v>1643.6</v>
+      </c>
+      <c r="S148" t="n">
+        <v>9.3</v>
+      </c>
       <c r="T148"/>
-      <c r="U148"/>
+      <c r="U148" t="n">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
@@ -8787,49 +8787,35 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G149" t="n">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H149"/>
       <c r="I149"/>
-      <c r="J149" t="n">
-        <v>22</v>
-      </c>
+      <c r="J149"/>
       <c r="K149" t="s">
         <v>49</v>
       </c>
-      <c r="L149" t="s">
-        <v>25</v>
-      </c>
-      <c r="M149" t="n">
-        <v>42</v>
-      </c>
-      <c r="N149" t="n">
-        <v>3</v>
-      </c>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
       <c r="O149" t="n">
-        <v>22.12</v>
+        <v>21.08</v>
       </c>
       <c r="P149" t="n">
-        <v>41</v>
+        <v>42.31</v>
       </c>
       <c r="Q149" t="n">
-        <v>63.12</v>
+        <v>63.39</v>
       </c>
       <c r="R149" t="n">
-        <v>1748.5</v>
-      </c>
-      <c r="S149" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="T149" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U149" t="n">
-        <v>59.4</v>
-      </c>
+        <v>1449</v>
+      </c>
+      <c r="S149"/>
+      <c r="T149"/>
+      <c r="U149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -8842,21 +8828,21 @@
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E150" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H150"/>
       <c r="I150"/>
       <c r="J150" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K150" t="s">
         <v>49</v>
@@ -8865,22 +8851,22 @@
         <v>25</v>
       </c>
       <c r="M150" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N150" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O150" t="n">
-        <v>21.25</v>
+        <v>20.99</v>
       </c>
       <c r="P150" t="n">
-        <v>42.73</v>
+        <v>42.7</v>
       </c>
       <c r="Q150" t="n">
-        <v>63.98</v>
+        <v>63.69</v>
       </c>
       <c r="R150" t="n">
-        <v>1344.6</v>
+        <v>1838.2</v>
       </c>
       <c r="S150" t="n">
         <v>10.9</v>
@@ -8889,7 +8875,7 @@
         <v>1.5</v>
       </c>
       <c r="U150" t="n">
-        <v>57</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="151">
@@ -8903,44 +8889,54 @@
         <v>2021</v>
       </c>
       <c r="D151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E151" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H151"/>
       <c r="I151"/>
-      <c r="J151"/>
+      <c r="J151" t="n">
+        <v>19</v>
+      </c>
       <c r="K151" t="s">
         <v>49</v>
       </c>
-      <c r="L151"/>
-      <c r="M151"/>
-      <c r="N151"/>
+      <c r="L151" t="s">
+        <v>25</v>
+      </c>
+      <c r="M151" t="n">
+        <v>40</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
       <c r="O151" t="n">
-        <v>21.77</v>
+        <v>21.25</v>
       </c>
       <c r="P151" t="n">
-        <v>42.17</v>
+        <v>44.48</v>
       </c>
       <c r="Q151" t="n">
-        <v>63.94</v>
+        <v>65.73</v>
       </c>
       <c r="R151" t="n">
-        <v>1643.6</v>
+        <v>1713.2</v>
       </c>
       <c r="S151" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="T151"/>
+        <v>10.2</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U151" t="n">
-        <v>58.2</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="152">
@@ -8954,16 +8950,16 @@
         <v>2021</v>
       </c>
       <c r="D152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E152" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F152" t="n">
         <v>3</v>
       </c>
       <c r="G152" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H152"/>
       <c r="I152"/>
@@ -8975,23 +8971,23 @@
       <c r="M152"/>
       <c r="N152"/>
       <c r="O152" t="n">
-        <v>21.77</v>
+        <v>21.36</v>
       </c>
       <c r="P152" t="n">
-        <v>42.17</v>
+        <v>43.26</v>
       </c>
       <c r="Q152" t="n">
-        <v>63.94</v>
+        <v>64.62</v>
       </c>
       <c r="R152" t="n">
-        <v>1643.6</v>
+        <v>1803</v>
       </c>
       <c r="S152" t="n">
-        <v>9.3</v>
+        <v>10.9</v>
       </c>
       <c r="T152"/>
       <c r="U152" t="n">
-        <v>57</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="153">
@@ -9005,16 +9001,16 @@
         <v>2021</v>
       </c>
       <c r="D153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E153" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G153" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H153"/>
       <c r="I153"/>
@@ -9026,24 +9022,20 @@
       <c r="M153"/>
       <c r="N153"/>
       <c r="O153" t="n">
-        <v>21.77</v>
+        <v>20.89</v>
       </c>
       <c r="P153" t="n">
-        <v>42.17</v>
+        <v>46.51</v>
       </c>
       <c r="Q153" t="n">
-        <v>63.94</v>
+        <v>67.4</v>
       </c>
       <c r="R153" t="n">
-        <v>1643.6</v>
-      </c>
-      <c r="S153" t="n">
-        <v>9.3</v>
-      </c>
+        <v>1184.6</v>
+      </c>
+      <c r="S153"/>
       <c r="T153"/>
-      <c r="U153" t="n">
-        <v>57</v>
-      </c>
+      <c r="U153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -9056,44 +9048,54 @@
         <v>2021</v>
       </c>
       <c r="D154" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E154" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="H154"/>
       <c r="I154"/>
-      <c r="J154"/>
+      <c r="J154" t="n">
+        <v>16</v>
+      </c>
       <c r="K154" t="s">
-        <v>49</v>
-      </c>
-      <c r="L154"/>
-      <c r="M154"/>
-      <c r="N154"/>
+        <v>50</v>
+      </c>
+      <c r="L154" t="s">
+        <v>25</v>
+      </c>
+      <c r="M154" t="n">
+        <v>29</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
       <c r="O154" t="n">
-        <v>21.77</v>
+        <v>21.61</v>
       </c>
       <c r="P154" t="n">
-        <v>42.17</v>
+        <v>43.62</v>
       </c>
       <c r="Q154" t="n">
-        <v>63.94</v>
+        <v>65.23</v>
       </c>
       <c r="R154" t="n">
-        <v>1643.6</v>
+        <v>2428.8</v>
       </c>
       <c r="S154" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="T154"/>
+        <v>15.1</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U154" t="n">
-        <v>57</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="155">
@@ -9107,44 +9109,54 @@
         <v>2021</v>
       </c>
       <c r="D155" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E155" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H155"/>
       <c r="I155"/>
-      <c r="J155"/>
+      <c r="J155" t="n">
+        <v>17</v>
+      </c>
       <c r="K155" t="s">
-        <v>49</v>
-      </c>
-      <c r="L155"/>
-      <c r="M155"/>
-      <c r="N155"/>
+        <v>50</v>
+      </c>
+      <c r="L155" t="s">
+        <v>25</v>
+      </c>
+      <c r="M155" t="n">
+        <v>31</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
       <c r="O155" t="n">
-        <v>21.77</v>
+        <v>21.97</v>
       </c>
       <c r="P155" t="n">
-        <v>42.17</v>
+        <v>42.39</v>
       </c>
       <c r="Q155" t="n">
-        <v>63.94</v>
+        <v>64.36</v>
       </c>
       <c r="R155" t="n">
-        <v>1643.6</v>
+        <v>2465.1</v>
       </c>
       <c r="S155" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="T155"/>
+        <v>15.5</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2</v>
+      </c>
       <c r="U155" t="n">
-        <v>57</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="156">
@@ -9158,41 +9170,45 @@
         <v>2021</v>
       </c>
       <c r="D156" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E156" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F156" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G156" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="H156"/>
       <c r="I156"/>
       <c r="J156"/>
       <c r="K156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L156"/>
       <c r="M156"/>
       <c r="N156"/>
       <c r="O156" t="n">
-        <v>21.08</v>
+        <v>21.89</v>
       </c>
       <c r="P156" t="n">
-        <v>42.31</v>
+        <v>41.56</v>
       </c>
       <c r="Q156" t="n">
-        <v>63.39</v>
+        <v>63.45</v>
       </c>
       <c r="R156" t="n">
-        <v>1449</v>
-      </c>
-      <c r="S156"/>
+        <v>2129.8</v>
+      </c>
+      <c r="S156" t="n">
+        <v>12.8</v>
+      </c>
       <c r="T156"/>
-      <c r="U156"/>
+      <c r="U156" t="n">
+        <v>55.1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -9205,55 +9221,41 @@
         <v>2021</v>
       </c>
       <c r="D157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E157" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G157" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H157"/>
       <c r="I157"/>
-      <c r="J157" t="n">
-        <v>19</v>
-      </c>
+      <c r="J157"/>
       <c r="K157" t="s">
-        <v>49</v>
-      </c>
-      <c r="L157" t="s">
-        <v>25</v>
-      </c>
-      <c r="M157" t="n">
-        <v>36</v>
-      </c>
-      <c r="N157" t="n">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
       <c r="O157" t="n">
-        <v>20.99</v>
+        <v>21.97</v>
       </c>
       <c r="P157" t="n">
-        <v>42.7</v>
+        <v>41.32</v>
       </c>
       <c r="Q157" t="n">
-        <v>63.69</v>
+        <v>63.29</v>
       </c>
       <c r="R157" t="n">
-        <v>1838.2</v>
-      </c>
-      <c r="S157" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="T157" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U157" t="n">
-        <v>56.4</v>
-      </c>
+        <v>2151.2</v>
+      </c>
+      <c r="S157"/>
+      <c r="T157"/>
+      <c r="U157"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -9266,21 +9268,21 @@
         <v>2021</v>
       </c>
       <c r="D158" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E158" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H158"/>
       <c r="I158"/>
       <c r="J158" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K158" t="s">
         <v>49</v>
@@ -9289,31 +9291,31 @@
         <v>25</v>
       </c>
       <c r="M158" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O158" t="n">
-        <v>21.25</v>
+        <v>21.33</v>
       </c>
       <c r="P158" t="n">
-        <v>44.48</v>
+        <v>43.55</v>
       </c>
       <c r="Q158" t="n">
-        <v>65.73</v>
+        <v>64.88</v>
       </c>
       <c r="R158" t="n">
-        <v>1713.2</v>
+        <v>1605.2</v>
       </c>
       <c r="S158" t="n">
-        <v>10.2</v>
+        <v>11.2</v>
       </c>
       <c r="T158" t="n">
         <v>1.5</v>
       </c>
       <c r="U158" t="n">
-        <v>56.4</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="159">
@@ -9327,44 +9329,54 @@
         <v>2021</v>
       </c>
       <c r="D159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E159" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H159"/>
       <c r="I159"/>
-      <c r="J159"/>
+      <c r="J159" t="n">
+        <v>17</v>
+      </c>
       <c r="K159" t="s">
         <v>49</v>
       </c>
-      <c r="L159"/>
-      <c r="M159"/>
-      <c r="N159"/>
+      <c r="L159" t="s">
+        <v>25</v>
+      </c>
+      <c r="M159" t="n">
+        <v>42</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
       <c r="O159" t="n">
-        <v>21.36</v>
+        <v>20.95</v>
       </c>
       <c r="P159" t="n">
-        <v>43.26</v>
+        <v>44.87</v>
       </c>
       <c r="Q159" t="n">
-        <v>64.62</v>
+        <v>65.82</v>
       </c>
       <c r="R159" t="n">
-        <v>1803</v>
+        <v>1456</v>
       </c>
       <c r="S159" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="T159"/>
+        <v>9.9</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U159" t="n">
-        <v>55.7</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="160">
@@ -9378,16 +9390,16 @@
         <v>2021</v>
       </c>
       <c r="D160" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E160" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
@@ -9399,20 +9411,22 @@
       <c r="M160"/>
       <c r="N160"/>
       <c r="O160" t="n">
-        <v>20.89</v>
+        <v>21.29</v>
       </c>
       <c r="P160" t="n">
-        <v>46.51</v>
+        <v>44.04</v>
       </c>
       <c r="Q160" t="n">
-        <v>67.4</v>
+        <v>65.33</v>
       </c>
       <c r="R160" t="n">
-        <v>1184.6</v>
+        <v>1747.8</v>
       </c>
       <c r="S160"/>
       <c r="T160"/>
-      <c r="U160"/>
+      <c r="U160" t="n">
+        <v>58.9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -9425,432 +9439,41 @@
         <v>2021</v>
       </c>
       <c r="D161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E161" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="H161"/>
       <c r="I161"/>
-      <c r="J161" t="n">
-        <v>16</v>
-      </c>
+      <c r="J161"/>
       <c r="K161" t="s">
-        <v>50</v>
-      </c>
-      <c r="L161" t="s">
-        <v>25</v>
-      </c>
-      <c r="M161" t="n">
-        <v>29</v>
-      </c>
-      <c r="N161" t="n">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
       <c r="O161" t="n">
-        <v>21.61</v>
+        <v>20.33</v>
       </c>
       <c r="P161" t="n">
-        <v>43.62</v>
+        <v>45.41</v>
       </c>
       <c r="Q161" t="n">
-        <v>65.23</v>
+        <v>65.74</v>
       </c>
       <c r="R161" t="n">
-        <v>2428.8</v>
-      </c>
-      <c r="S161" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="T161" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U161" t="n">
-        <v>56.2</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>21</v>
-      </c>
-      <c r="B162" t="s">
-        <v>48</v>
-      </c>
-      <c r="C162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D162" t="s">
-        <v>46</v>
-      </c>
-      <c r="E162" t="n">
-        <v>19</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2</v>
-      </c>
-      <c r="G162" t="n">
-        <v>29</v>
-      </c>
-      <c r="H162"/>
-      <c r="I162"/>
-      <c r="J162" t="n">
-        <v>17</v>
-      </c>
-      <c r="K162" t="s">
-        <v>50</v>
-      </c>
-      <c r="L162" t="s">
-        <v>25</v>
-      </c>
-      <c r="M162" t="n">
-        <v>31</v>
-      </c>
-      <c r="N162" t="n">
-        <v>1</v>
-      </c>
-      <c r="O162" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="P162" t="n">
-        <v>42.39</v>
-      </c>
-      <c r="Q162" t="n">
-        <v>64.36</v>
-      </c>
-      <c r="R162" t="n">
-        <v>2465.1</v>
-      </c>
-      <c r="S162" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="T162" t="n">
-        <v>2</v>
-      </c>
-      <c r="U162" t="n">
-        <v>56.4</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>21</v>
-      </c>
-      <c r="B163" t="s">
-        <v>48</v>
-      </c>
-      <c r="C163" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D163" t="s">
-        <v>46</v>
-      </c>
-      <c r="E163" t="n">
-        <v>19</v>
-      </c>
-      <c r="F163" t="n">
-        <v>3</v>
-      </c>
-      <c r="G163" t="n">
-        <v>58</v>
-      </c>
-      <c r="H163"/>
-      <c r="I163"/>
-      <c r="J163"/>
-      <c r="K163" t="s">
-        <v>50</v>
-      </c>
-      <c r="L163"/>
-      <c r="M163"/>
-      <c r="N163"/>
-      <c r="O163" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="P163" t="n">
-        <v>41.56</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>63.45</v>
-      </c>
-      <c r="R163" t="n">
-        <v>2129.8</v>
-      </c>
-      <c r="S163" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T163"/>
-      <c r="U163" t="n">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>21</v>
-      </c>
-      <c r="B164" t="s">
-        <v>48</v>
-      </c>
-      <c r="C164" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D164" t="s">
-        <v>46</v>
-      </c>
-      <c r="E164" t="n">
-        <v>19</v>
-      </c>
-      <c r="F164" t="n">
-        <v>4</v>
-      </c>
-      <c r="G164" t="n">
-        <v>67</v>
-      </c>
-      <c r="H164"/>
-      <c r="I164"/>
-      <c r="J164"/>
-      <c r="K164" t="s">
-        <v>50</v>
-      </c>
-      <c r="L164"/>
-      <c r="M164"/>
-      <c r="N164"/>
-      <c r="O164" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="P164" t="n">
-        <v>41.32</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>63.29</v>
-      </c>
-      <c r="R164" t="n">
-        <v>2151.2</v>
-      </c>
-      <c r="S164"/>
-      <c r="T164"/>
-      <c r="U164"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>21</v>
-      </c>
-      <c r="B165" t="s">
-        <v>48</v>
-      </c>
-      <c r="C165" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D165" t="s">
-        <v>47</v>
-      </c>
-      <c r="E165" t="n">
-        <v>20</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" t="n">
-        <v>3</v>
-      </c>
-      <c r="H165"/>
-      <c r="I165"/>
-      <c r="J165" t="n">
-        <v>18</v>
-      </c>
-      <c r="K165" t="s">
-        <v>49</v>
-      </c>
-      <c r="L165" t="s">
-        <v>25</v>
-      </c>
-      <c r="M165" t="n">
-        <v>42</v>
-      </c>
-      <c r="N165" t="n">
-        <v>3</v>
-      </c>
-      <c r="O165" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="P165" t="n">
-        <v>43.55</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>64.88</v>
-      </c>
-      <c r="R165" t="n">
-        <v>1605.2</v>
-      </c>
-      <c r="S165" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="T165" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U165" t="n">
-        <v>57.2</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>21</v>
-      </c>
-      <c r="B166" t="s">
-        <v>48</v>
-      </c>
-      <c r="C166" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D166" t="s">
-        <v>47</v>
-      </c>
-      <c r="E166" t="n">
-        <v>20</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2</v>
-      </c>
-      <c r="G166" t="n">
-        <v>38</v>
-      </c>
-      <c r="H166"/>
-      <c r="I166"/>
-      <c r="J166" t="n">
-        <v>17</v>
-      </c>
-      <c r="K166" t="s">
-        <v>49</v>
-      </c>
-      <c r="L166" t="s">
-        <v>25</v>
-      </c>
-      <c r="M166" t="n">
-        <v>42</v>
-      </c>
-      <c r="N166" t="n">
-        <v>1</v>
-      </c>
-      <c r="O166" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="P166" t="n">
-        <v>44.87</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>65.82</v>
-      </c>
-      <c r="R166" t="n">
-        <v>1456</v>
-      </c>
-      <c r="S166" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="T166" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U166" t="n">
-        <v>56.9</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>21</v>
-      </c>
-      <c r="B167" t="s">
-        <v>48</v>
-      </c>
-      <c r="C167" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D167" t="s">
-        <v>47</v>
-      </c>
-      <c r="E167" t="n">
-        <v>20</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3</v>
-      </c>
-      <c r="G167" t="n">
-        <v>60</v>
-      </c>
-      <c r="H167"/>
-      <c r="I167"/>
-      <c r="J167"/>
-      <c r="K167" t="s">
-        <v>49</v>
-      </c>
-      <c r="L167"/>
-      <c r="M167"/>
-      <c r="N167"/>
-      <c r="O167" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="P167" t="n">
-        <v>44.04</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>65.33</v>
-      </c>
-      <c r="R167" t="n">
-        <v>1747.8</v>
-      </c>
-      <c r="S167"/>
-      <c r="T167"/>
-      <c r="U167" t="n">
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>21</v>
-      </c>
-      <c r="B168" t="s">
-        <v>48</v>
-      </c>
-      <c r="C168" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D168" t="s">
-        <v>47</v>
-      </c>
-      <c r="E168" t="n">
-        <v>20</v>
-      </c>
-      <c r="F168" t="n">
-        <v>4</v>
-      </c>
-      <c r="G168" t="n">
-        <v>68</v>
-      </c>
-      <c r="H168"/>
-      <c r="I168"/>
-      <c r="J168"/>
-      <c r="K168" t="s">
-        <v>49</v>
-      </c>
-      <c r="L168"/>
-      <c r="M168"/>
-      <c r="N168"/>
-      <c r="O168" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="P168" t="n">
-        <v>45.41</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>65.74</v>
-      </c>
-      <c r="R168" t="n">
         <v>1305.3</v>
       </c>
-      <c r="S168"/>
-      <c r="T168"/>
-      <c r="U168"/>
+      <c r="S161"/>
+      <c r="T161"/>
+      <c r="U161"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
